--- a/AAII_Financials/Quarterly/FZMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FZMD_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>FZMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F8" s="3">
         <v>5700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>5100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>4800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>7800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>6800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>5700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>6000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>25500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>7300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>25200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F9" s="3">
         <v>4800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>3400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>3000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>3800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>14200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>4500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>11100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F10" s="3">
         <v>900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>4400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>3800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>11300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>14100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,25 +1002,31 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>900</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F17" s="3">
         <v>8800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>5200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>5400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>7300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>6400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>7700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>24600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>6600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>6100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>21800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>900</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>3400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,20 +1254,20 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>5700</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1222,52 +1289,64 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>6200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>900</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>3500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1293,113 +1372,131 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>6100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>800</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>3300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>6000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>800</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>3300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>6000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>800</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>3300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,20 +1854,20 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-5700</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1750,52 +1889,64 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>6000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>800</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>3300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>6000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>800</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>3300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F41" s="3">
         <v>1000</v>
-      </c>
-      <c r="E41" s="3">
-        <v>800</v>
-      </c>
-      <c r="F41" s="3">
-        <v>900</v>
       </c>
       <c r="G41" s="3">
         <v>800</v>
       </c>
       <c r="H41" s="3">
+        <v>900</v>
+      </c>
+      <c r="I41" s="3">
+        <v>800</v>
+      </c>
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,101 +2234,119 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F43" s="3">
         <v>4800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>3900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>3200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>5200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>3500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>3600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>4700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>6600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>6500</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F44" s="3">
         <v>8200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>10800</v>
-      </c>
-      <c r="F44" s="3">
-        <v>11000</v>
-      </c>
-      <c r="G44" s="3">
-        <v>11100</v>
       </c>
       <c r="H44" s="3">
         <v>11000</v>
       </c>
       <c r="I44" s="3">
+        <v>11100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K44" s="3">
         <v>11200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>10300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>10600</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
       <c r="N44" s="3">
         <v>0</v>
       </c>
       <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
         <v>11400</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2187,52 +2384,64 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F46" s="3">
         <v>14000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>15500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>15100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>17200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>15200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>15500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>15800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>18000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>18700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2484,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,19 +2534,25 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F49" s="3">
         <v>4100</v>
-      </c>
-      <c r="E49" s="3">
-        <v>4200</v>
-      </c>
-      <c r="F49" s="3">
-        <v>4200</v>
       </c>
       <c r="G49" s="3">
         <v>4200</v>
@@ -2340,31 +2561,37 @@
         <v>4200</v>
       </c>
       <c r="I49" s="3">
-        <v>800</v>
+        <v>4200</v>
       </c>
       <c r="J49" s="3">
-        <v>800</v>
+        <v>4200</v>
       </c>
       <c r="K49" s="3">
         <v>800</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
+      <c r="L49" s="3">
+        <v>800</v>
+      </c>
+      <c r="M49" s="3">
+        <v>800</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O49" s="3">
-        <v>800</v>
+      <c r="O49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>800</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,40 +2684,46 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>800</v>
-      </c>
-      <c r="H52" s="3">
-        <v>600</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1000</v>
       </c>
       <c r="J52" s="3">
         <v>600</v>
       </c>
       <c r="K52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L52" s="3">
+        <v>600</v>
+      </c>
+      <c r="M52" s="3">
         <v>400</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>8</v>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>18400</v>
+      </c>
+      <c r="F54" s="3">
         <v>18200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>20700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>20200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>22200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>20100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>17400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>17200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>19200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>19600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,184 +2878,210 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1500</v>
       </c>
       <c r="K57" s="3">
         <v>2600</v>
       </c>
       <c r="L57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>100</v>
-      </c>
-      <c r="O57" s="3">
-        <v>2500</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E58" s="3">
         <v>1900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G58" s="3">
         <v>1400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>200</v>
-      </c>
-      <c r="M58" s="3">
-        <v>200</v>
       </c>
       <c r="N58" s="3">
         <v>200</v>
       </c>
       <c r="O58" s="3">
-        <v>3500</v>
+        <v>200</v>
       </c>
       <c r="P58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="R58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F59" s="3">
         <v>2900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
       <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>3100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F60" s="3">
         <v>7300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>5800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>7100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>6900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>6500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>8000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>9000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,16 +3124,22 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13600</v>
+        <v>11600</v>
       </c>
       <c r="E62" s="3">
-        <v>13600</v>
+        <v>11600</v>
       </c>
       <c r="F62" s="3">
         <v>13600</v>
@@ -2857,10 +3148,10 @@
         <v>13600</v>
       </c>
       <c r="H62" s="3">
-        <v>19200</v>
+        <v>13600</v>
       </c>
       <c r="I62" s="3">
-        <v>19200</v>
+        <v>13600</v>
       </c>
       <c r="J62" s="3">
         <v>19200</v>
@@ -2869,10 +3160,10 @@
         <v>19200</v>
       </c>
       <c r="L62" s="3">
-        <v>0</v>
+        <v>19200</v>
       </c>
       <c r="M62" s="3">
-        <v>0</v>
+        <v>19200</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>19600</v>
+      </c>
+      <c r="F66" s="3">
         <v>20900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>19300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>19000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>20700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>25100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>26200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>25800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>27200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>9000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-4000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-700</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-3000</v>
-      </c>
       <c r="M72" s="3">
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="N72" s="3">
         <v>-3000</v>
       </c>
       <c r="O72" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="P72" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+      <c r="R72" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-5000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-8800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-8600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-8000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>10600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>6000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>800</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>3300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>100</v>
       </c>
       <c r="F89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>2800</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,13 +4393,15 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>8</v>
@@ -3968,17 +4409,17 @@
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
+      <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3" t="s">
+      <c r="H91" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
@@ -3986,11 +4427,11 @@
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,32 +4539,38 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -4125,13 +4584,19 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>700</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4181,19 +4648,25 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-200</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>200</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
       </c>
       <c r="N102" s="3">
         <v>-100</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FZMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FZMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>FZMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>25500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>25200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E9" s="3">
         <v>2000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E10" s="3">
         <v>2600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>11300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>14100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,19 +1025,22 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>900</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1028,8 +1048,8 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E17" s="3">
         <v>5900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>24600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>21800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>900</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,11 +1288,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>2000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1266,11 +1300,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>5700</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1295,58 +1329,64 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>900</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1378,11 +1418,11 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
@@ -1390,63 +1430,69 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>800</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1457,34 +1503,34 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
       </c>
       <c r="K24" s="3">
+        <v>100</v>
+      </c>
+      <c r="L24" s="3">
         <v>-400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-200</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1492,11 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>800</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>800</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,11 +1924,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2000</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1866,11 +1936,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-5700</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1895,58 +1965,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>800</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>800</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
-      </c>
-      <c r="L41" s="3">
-        <v>800</v>
       </c>
       <c r="M41" s="3">
         <v>800</v>
       </c>
       <c r="N41" s="3">
+        <v>800</v>
+      </c>
+      <c r="O41" s="3">
         <v>500</v>
-      </c>
-      <c r="O41" s="3">
-        <v>400</v>
       </c>
       <c r="P41" s="3">
         <v>400</v>
       </c>
       <c r="Q41" s="3">
+        <v>400</v>
+      </c>
+      <c r="R41" s="3">
         <v>800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,94 +2330,100 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6500</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E44" s="3">
         <v>7800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>7900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>8200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>10800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>11000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>11100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>11000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>11200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>10300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>10600</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
@@ -2335,13 +2431,16 @@
         <v>0</v>
       </c>
       <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
         <v>11400</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2349,7 +2448,7 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2390,81 +2489,87 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E46" s="3">
         <v>13100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>15100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>17200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>15200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>18000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>18700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>1800</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2540,22 +2648,25 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E49" s="3">
         <v>3200</v>
       </c>
       <c r="F49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G49" s="3">
         <v>4100</v>
-      </c>
-      <c r="G49" s="3">
-        <v>4200</v>
       </c>
       <c r="H49" s="3">
         <v>4200</v>
@@ -2567,7 +2678,7 @@
         <v>4200</v>
       </c>
       <c r="K49" s="3">
-        <v>800</v>
+        <v>4200</v>
       </c>
       <c r="L49" s="3">
         <v>800</v>
@@ -2575,8 +2686,8 @@
       <c r="M49" s="3">
         <v>800</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
+      <c r="N49" s="3">
+        <v>800</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
@@ -2584,14 +2695,17 @@
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R49" s="3">
         <v>800</v>
       </c>
-      <c r="R49" s="3" t="s">
+      <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2701,32 +2821,32 @@
       <c r="E52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G52" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>900</v>
       </c>
       <c r="I52" s="3">
+        <v>900</v>
+      </c>
+      <c r="J52" s="3">
         <v>800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>400</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>8</v>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,8 +2913,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2799,49 +2925,52 @@
         <v>16300</v>
       </c>
       <c r="E54" s="3">
+        <v>16300</v>
+      </c>
+      <c r="F54" s="3">
         <v>18400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>20700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>20200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>22200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>20100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>19200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>19600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,93 +3010,97 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2600</v>
-      </c>
-      <c r="N57" s="3">
-        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E58" s="3">
         <v>1700</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1900</v>
       </c>
       <c r="F58" s="3">
         <v>1900</v>
       </c>
       <c r="G58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H58" s="3">
         <v>1400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>200</v>
       </c>
       <c r="O58" s="3">
         <v>200</v>
@@ -2975,118 +3109,127 @@
         <v>200</v>
       </c>
       <c r="Q58" s="3">
+        <v>200</v>
+      </c>
+      <c r="R58" s="3">
         <v>3500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E59" s="3">
         <v>2800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
       <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
         <v>3100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E60" s="3">
         <v>7000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8000</v>
-      </c>
-      <c r="N60" s="3">
-        <v>400</v>
       </c>
       <c r="O60" s="3">
         <v>400</v>
       </c>
       <c r="P60" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3142,7 +3288,7 @@
         <v>11600</v>
       </c>
       <c r="F62" s="3">
-        <v>13600</v>
+        <v>11600</v>
       </c>
       <c r="G62" s="3">
         <v>13600</v>
@@ -3154,7 +3300,7 @@
         <v>13600</v>
       </c>
       <c r="J62" s="3">
-        <v>19200</v>
+        <v>13600</v>
       </c>
       <c r="K62" s="3">
         <v>19200</v>
@@ -3166,7 +3312,7 @@
         <v>19200</v>
       </c>
       <c r="N62" s="3">
-        <v>0</v>
+        <v>19200</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E66" s="3">
         <v>18600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>20700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>25100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>26200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>25800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>27200</v>
-      </c>
-      <c r="N66" s="3">
-        <v>400</v>
       </c>
       <c r="O66" s="3">
         <v>400</v>
       </c>
       <c r="P66" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q66" s="3">
         <v>300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,43 +3771,46 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-700</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
       <c r="N72" s="3">
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="O72" s="3">
         <v>-3000</v>
@@ -3645,13 +3819,16 @@
         <v>-3000</v>
       </c>
       <c r="Q72" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="R72" s="3">
+        <v>0</v>
+      </c>
+      <c r="S72" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-8800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-8600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-8000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>400</v>
-      </c>
-      <c r="O76" s="3">
-        <v>300</v>
       </c>
       <c r="P76" s="3">
         <v>300</v>
       </c>
       <c r="Q76" s="3">
+        <v>300</v>
+      </c>
+      <c r="R76" s="3">
         <v>10600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>800</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>100</v>
       </c>
       <c r="H89" s="3">
         <v>100</v>
       </c>
       <c r="I89" s="3">
+        <v>100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2800</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,16 +4615,17 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>8</v>
@@ -4415,14 +4636,14 @@
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
@@ -4433,8 +4654,8 @@
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4559,21 +4789,21 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -4590,13 +4820,16 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>700</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4654,19 +4888,22 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-200</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>500</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-100</v>
       </c>
       <c r="H100" s="3">
         <v>-100</v>
       </c>
       <c r="I100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>200</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-100</v>
       </c>
       <c r="K102" s="3">
         <v>-100</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FZMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FZMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>FZMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E8" s="3">
         <v>4000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>25500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>25200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>14200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E10" s="3">
         <v>2200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>14100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1039,11 +1059,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>900</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1051,8 +1071,8 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E17" s="3">
         <v>4400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>24600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>21800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>900</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1291,11 +1325,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>2000</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1303,11 +1337,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>5700</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1332,61 +1366,67 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>900</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1421,11 +1461,11 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
@@ -1433,66 +1473,72 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>800</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1506,34 +1552,34 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
       </c>
       <c r="L24" s="3">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
         <v>-400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-200</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1541,11 +1587,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>800</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>800</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1927,11 +1997,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2000</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1939,11 +2009,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-5700</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>800</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>800</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E41" s="3">
         <v>1200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
-      </c>
-      <c r="M41" s="3">
-        <v>800</v>
       </c>
       <c r="N41" s="3">
         <v>800</v>
       </c>
       <c r="O41" s="3">
+        <v>800</v>
+      </c>
+      <c r="P41" s="3">
         <v>500</v>
-      </c>
-      <c r="P41" s="3">
-        <v>400</v>
       </c>
       <c r="Q41" s="3">
         <v>400</v>
       </c>
       <c r="R41" s="3">
+        <v>400</v>
+      </c>
+      <c r="S41" s="3">
         <v>800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,100 +2423,106 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E43" s="3">
         <v>3000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6500</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E44" s="3">
         <v>7100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>7800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>7900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>10800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>11000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>11100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>11000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>11200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>10300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>10600</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
       <c r="P44" s="3">
         <v>0</v>
       </c>
@@ -2434,24 +2530,27 @@
         <v>0</v>
       </c>
       <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
         <v>11400</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2492,69 +2591,75 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E46" s="3">
         <v>11300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>14000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>15500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>15100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>17200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>18000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>18700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E47" s="3">
         <v>1800</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
@@ -2571,8 +2676,8 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2660,16 +2771,16 @@
         <v>3100</v>
       </c>
       <c r="E49" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="F49" s="3">
         <v>3200</v>
       </c>
       <c r="G49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H49" s="3">
         <v>4100</v>
-      </c>
-      <c r="H49" s="3">
-        <v>4200</v>
       </c>
       <c r="I49" s="3">
         <v>4200</v>
@@ -2681,7 +2792,7 @@
         <v>4200</v>
       </c>
       <c r="L49" s="3">
-        <v>800</v>
+        <v>4200</v>
       </c>
       <c r="M49" s="3">
         <v>800</v>
@@ -2689,8 +2800,8 @@
       <c r="N49" s="3">
         <v>800</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
+      <c r="O49" s="3">
+        <v>800</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
@@ -2698,14 +2809,17 @@
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49" s="3">
         <v>800</v>
       </c>
-      <c r="S49" s="3" t="s">
+      <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2824,32 +2944,32 @@
       <c r="F52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H52" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>900</v>
       </c>
       <c r="J52" s="3">
+        <v>900</v>
+      </c>
+      <c r="K52" s="3">
         <v>800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>400</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>8</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16300</v>
+        <v>17000</v>
       </c>
       <c r="E54" s="3">
         <v>16300</v>
       </c>
       <c r="F54" s="3">
+        <v>16300</v>
+      </c>
+      <c r="G54" s="3">
         <v>18400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>18200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>20700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>20200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>22200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>20100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>19200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>19600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,99 +3141,103 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2600</v>
-      </c>
-      <c r="O57" s="3">
-        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
       </c>
       <c r="Q57" s="3">
+        <v>200</v>
+      </c>
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="3">
         <v>1600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1700</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1900</v>
       </c>
       <c r="G58" s="3">
         <v>1900</v>
       </c>
       <c r="H58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I58" s="3">
         <v>1400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3600</v>
-      </c>
-      <c r="O58" s="3">
-        <v>200</v>
       </c>
       <c r="P58" s="3">
         <v>200</v>
@@ -3112,119 +3246,128 @@
         <v>200</v>
       </c>
       <c r="R58" s="3">
+        <v>200</v>
+      </c>
+      <c r="S58" s="3">
         <v>3500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E59" s="3">
         <v>3100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
       <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>3100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E60" s="3">
         <v>6900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8000</v>
-      </c>
-      <c r="O60" s="3">
-        <v>400</v>
       </c>
       <c r="P60" s="3">
         <v>400</v>
       </c>
       <c r="Q60" s="3">
+        <v>400</v>
+      </c>
+      <c r="R60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3232,7 +3375,7 @@
         <v>400</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3291,7 +3437,7 @@
         <v>11600</v>
       </c>
       <c r="G62" s="3">
-        <v>13600</v>
+        <v>11600</v>
       </c>
       <c r="H62" s="3">
         <v>13600</v>
@@ -3303,7 +3449,7 @@
         <v>13600</v>
       </c>
       <c r="K62" s="3">
-        <v>19200</v>
+        <v>13600</v>
       </c>
       <c r="L62" s="3">
         <v>19200</v>
@@ -3315,7 +3461,7 @@
         <v>19200</v>
       </c>
       <c r="O62" s="3">
-        <v>0</v>
+        <v>19200</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E66" s="3">
         <v>18900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>18600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>20700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>25100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>26200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>25800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>27200</v>
-      </c>
-      <c r="O66" s="3">
-        <v>400</v>
       </c>
       <c r="P66" s="3">
         <v>400</v>
       </c>
       <c r="Q66" s="3">
+        <v>400</v>
+      </c>
+      <c r="R66" s="3">
         <v>300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,46 +3945,49 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-700</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
       <c r="O72" s="3">
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="P72" s="3">
         <v>-3000</v>
@@ -3822,13 +3996,16 @@
         <v>-3000</v>
       </c>
       <c r="R72" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="S72" s="3">
+        <v>0</v>
+      </c>
+      <c r="T72" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-8800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-8600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-8000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>400</v>
-      </c>
-      <c r="P76" s="3">
-        <v>300</v>
       </c>
       <c r="Q76" s="3">
         <v>300</v>
       </c>
       <c r="R76" s="3">
+        <v>300</v>
+      </c>
+      <c r="S76" s="3">
         <v>10600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>800</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>400</v>
+      </c>
+      <c r="E89" s="3">
         <v>100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
-      </c>
-      <c r="H89" s="3">
-        <v>100</v>
       </c>
       <c r="I89" s="3">
         <v>100</v>
       </c>
       <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2800</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4627,8 +4848,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
@@ -4639,14 +4860,14 @@
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
@@ -4657,8 +4878,8 @@
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4792,21 +5022,21 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -4823,13 +5053,16 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>700</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4891,19 +5125,22 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-200</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>500</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-100</v>
       </c>
       <c r="I100" s="3">
         <v>-100</v>
       </c>
       <c r="J100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5176,48 +5428,51 @@
         <v>400</v>
       </c>
       <c r="E102" s="3">
+        <v>400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>200</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-100</v>
       </c>
       <c r="L102" s="3">
         <v>-100</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FZMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FZMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>FZMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,282 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F8" s="3">
         <v>5700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>4000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>4600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>7300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>5700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>5100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>7800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>6800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>5700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>6000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>25500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>7300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>5600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>25200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E9" s="3">
-        <v>1800</v>
+        <v>2900</v>
       </c>
       <c r="F9" s="3">
         <v>2000</v>
       </c>
       <c r="G9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I9" s="3">
         <v>2800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>4800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>3800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>14200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>4500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>3100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>11100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F10" s="3">
         <v>3700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>4500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>4400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>3800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>11300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>2500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>14100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,37 +1081,43 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>900</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1230,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F17" s="3">
         <v>5600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>4400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>5900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>7800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>8800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>5200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>7300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>6400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>7700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>6900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>24600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>6600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>6100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>21800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>500</v>
+      </c>
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-3100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>900</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>3400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,32 +1389,32 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>2000</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>5700</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1369,64 +1436,76 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>200</v>
+      </c>
+      <c r="F21" s="3">
         <v>100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-3100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>6200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-2000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>900</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>3500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1464,81 +1543,93 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>200</v>
+      </c>
+      <c r="F23" s="3">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>6100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>800</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>3300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1555,46 +1646,52 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>200</v>
+      </c>
+      <c r="F26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-4100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>6000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>800</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>3300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>200</v>
+      </c>
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-4100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>6000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>800</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>3300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,32 +2133,32 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-2000</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-5700</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2041,64 +2180,76 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>200</v>
+      </c>
+      <c r="F33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-4100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>6000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>800</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>3300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>200</v>
+      </c>
+      <c r="F35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-4100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>6000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>800</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>3300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2485,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E41" s="3">
         <v>1200</v>
       </c>
       <c r="F41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
-      </c>
-      <c r="I41" s="3">
-        <v>800</v>
-      </c>
-      <c r="J41" s="3">
-        <v>900</v>
       </c>
       <c r="K41" s="3">
         <v>800</v>
       </c>
       <c r="L41" s="3">
+        <v>900</v>
+      </c>
+      <c r="M41" s="3">
+        <v>800</v>
+      </c>
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,138 +2605,156 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F43" s="3">
         <v>3200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>3000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>4400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>6200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>4800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>3900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>3200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>5200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>3500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>3600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>4700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>6600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>6500</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E44" s="3">
         <v>7000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G44" s="3">
         <v>7100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>7800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>7900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>8200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>10800</v>
-      </c>
-      <c r="J44" s="3">
-        <v>11000</v>
-      </c>
-      <c r="K44" s="3">
-        <v>11100</v>
       </c>
       <c r="L44" s="3">
         <v>11000</v>
       </c>
       <c r="M44" s="3">
+        <v>11100</v>
+      </c>
+      <c r="N44" s="3">
+        <v>11000</v>
+      </c>
+      <c r="O44" s="3">
         <v>11200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>10300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>10600</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
       <c r="R44" s="3">
         <v>0</v>
       </c>
       <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
         <v>11400</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
@@ -2594,79 +2791,91 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F46" s="3">
         <v>11800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>11300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>13100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>15200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>14000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>15500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>15100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>17200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>15200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>15500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>15800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>18000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>18700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F47" s="3">
         <v>2100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>1800</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2679,11 +2888,11 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2706,8 +2915,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,8 +2977,14 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2774,19 +2995,19 @@
         <v>3100</v>
       </c>
       <c r="F49" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G49" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H49" s="3">
         <v>3200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>3200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>4100</v>
-      </c>
-      <c r="I49" s="3">
-        <v>4200</v>
-      </c>
-      <c r="J49" s="3">
-        <v>4200</v>
       </c>
       <c r="K49" s="3">
         <v>4200</v>
@@ -2795,31 +3016,37 @@
         <v>4200</v>
       </c>
       <c r="M49" s="3">
-        <v>800</v>
+        <v>4200</v>
       </c>
       <c r="N49" s="3">
-        <v>800</v>
+        <v>4200</v>
       </c>
       <c r="O49" s="3">
         <v>800</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
+      <c r="P49" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>800</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U49" s="3">
         <v>800</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2947,36 +3186,36 @@
       <c r="G52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>800</v>
-      </c>
-      <c r="L52" s="3">
-        <v>600</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1000</v>
       </c>
       <c r="N52" s="3">
         <v>600</v>
       </c>
       <c r="O52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P52" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q52" s="3">
         <v>400</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>17400</v>
+      </c>
+      <c r="F54" s="3">
         <v>17000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>16300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>16300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>18400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>18200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>20700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>20200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>22200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>20100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>17400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>17200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>19200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>19600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,247 +3401,273 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F57" s="3">
         <v>2300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>2600</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1500</v>
       </c>
       <c r="O57" s="3">
         <v>2600</v>
       </c>
       <c r="P57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
-      </c>
-      <c r="R57" s="3">
-        <v>100</v>
-      </c>
-      <c r="S57" s="3">
-        <v>2500</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F58" s="3">
         <v>1500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>3600</v>
-      </c>
-      <c r="P58" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>200</v>
       </c>
       <c r="R58" s="3">
         <v>200</v>
       </c>
       <c r="S58" s="3">
-        <v>3500</v>
+        <v>200</v>
       </c>
       <c r="T58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="V58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F59" s="3">
         <v>3500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
       <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
         <v>3100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F60" s="3">
         <v>7400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>7000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>8000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>7300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>7100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>6900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>8000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>9000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>300</v>
+      </c>
+      <c r="F61" s="3">
         <v>400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3422,16 +3707,22 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11600</v>
+        <v>11900</v>
       </c>
       <c r="E62" s="3">
-        <v>11600</v>
+        <v>11900</v>
       </c>
       <c r="F62" s="3">
         <v>11600</v>
@@ -3440,10 +3731,10 @@
         <v>11600</v>
       </c>
       <c r="H62" s="3">
-        <v>13600</v>
+        <v>11600</v>
       </c>
       <c r="I62" s="3">
-        <v>13600</v>
+        <v>11600</v>
       </c>
       <c r="J62" s="3">
         <v>13600</v>
@@ -3452,10 +3743,10 @@
         <v>13600</v>
       </c>
       <c r="L62" s="3">
-        <v>19200</v>
+        <v>13600</v>
       </c>
       <c r="M62" s="3">
-        <v>19200</v>
+        <v>13600</v>
       </c>
       <c r="N62" s="3">
         <v>19200</v>
@@ -3464,10 +3755,10 @@
         <v>19200</v>
       </c>
       <c r="P62" s="3">
-        <v>0</v>
+        <v>19200</v>
       </c>
       <c r="Q62" s="3">
-        <v>0</v>
+        <v>19200</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>19500</v>
+      </c>
+      <c r="F66" s="3">
         <v>19400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>18900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>18600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>19600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>20900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>19300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>19000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>20700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>25100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>26200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>25800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>27200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>9000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-4200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-4300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-3900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-4000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-2400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-700</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-3000</v>
-      </c>
       <c r="Q72" s="3">
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="R72" s="3">
         <v>-3000</v>
       </c>
       <c r="S72" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="T72" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+      <c r="V72" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-5000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-8800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-8600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-8000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>10600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>200</v>
+      </c>
+      <c r="F81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-4100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>6000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>800</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>3300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>400</v>
-      </c>
-      <c r="E89" s="3">
-        <v>100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>100</v>
       </c>
       <c r="H89" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>100</v>
       </c>
       <c r="J89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>2800</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,13 +5276,15 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4851,11 +5292,11 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
@@ -4863,17 +5304,17 @@
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
@@ -4881,11 +5322,11 @@
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5025,24 +5484,24 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -5056,13 +5515,19 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>700</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5128,19 +5595,25 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-200</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5792,76 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5916,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>200</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
       </c>
       <c r="R102" s="3">
         <v>-100</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U102" s="3">
         <v>600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FZMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FZMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>FZMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E8" s="3">
         <v>4400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>25500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>25200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E9" s="3">
         <v>1900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>14200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>11100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E10" s="3">
         <v>2500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>11300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>14100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,19 +1104,22 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1107,11 +1127,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>900</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1119,8 +1139,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E17" s="3">
         <v>4900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>24600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>21800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>-500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>900</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,11 +1423,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1401,11 +1435,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>2000</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1413,11 +1447,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>5700</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1442,70 +1476,76 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>900</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1549,11 +1589,11 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
@@ -1561,75 +1601,81 @@
         <v>0</v>
       </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>100</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>800</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1652,34 +1698,34 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
       </c>
       <c r="O24" s="3">
+        <v>100</v>
+      </c>
+      <c r="P24" s="3">
         <v>-400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="S24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -1687,11 +1733,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-      <c r="V24" s="3" t="s">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>800</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>800</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,11 +2203,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2145,11 +2215,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-2000</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2157,11 +2227,11 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-5700</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2186,70 +2256,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>800</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>800</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2496,61 +2583,64 @@
         <v>1400</v>
       </c>
       <c r="E41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
-      </c>
-      <c r="P41" s="3">
-        <v>800</v>
       </c>
       <c r="Q41" s="3">
         <v>800</v>
       </c>
       <c r="R41" s="3">
+        <v>800</v>
+      </c>
+      <c r="S41" s="3">
         <v>500</v>
-      </c>
-      <c r="S41" s="3">
-        <v>400</v>
       </c>
       <c r="T41" s="3">
         <v>400</v>
       </c>
       <c r="U41" s="3">
+        <v>400</v>
+      </c>
+      <c r="V41" s="3">
         <v>800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,118 +2701,124 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E43" s="3">
         <v>3500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6500</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E44" s="3">
         <v>7600</v>
-      </c>
-      <c r="E44" s="3">
-        <v>7000</v>
       </c>
       <c r="F44" s="3">
         <v>7000</v>
       </c>
       <c r="G44" s="3">
+        <v>7000</v>
+      </c>
+      <c r="H44" s="3">
         <v>7100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>7800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>7900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>8200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>10800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>11000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>11100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>11000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>11200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>10300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>10600</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
-      </c>
       <c r="S44" s="3">
         <v>0</v>
       </c>
@@ -2730,13 +2826,16 @@
         <v>0</v>
       </c>
       <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
         <v>11400</v>
       </c>
-      <c r="V44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2744,19 +2843,19 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2797,87 +2896,93 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12600</v>
+        <v>12800</v>
       </c>
       <c r="E46" s="3">
         <v>12600</v>
       </c>
       <c r="F46" s="3">
+        <v>12600</v>
+      </c>
+      <c r="G46" s="3">
         <v>11800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>13100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>15200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>14000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>18000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>18700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E47" s="3">
         <v>1800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1800</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -2894,8 +2999,8 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3001,16 +3112,16 @@
         <v>3100</v>
       </c>
       <c r="H49" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="I49" s="3">
         <v>3200</v>
       </c>
       <c r="J49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K49" s="3">
         <v>4100</v>
-      </c>
-      <c r="K49" s="3">
-        <v>4200</v>
       </c>
       <c r="L49" s="3">
         <v>4200</v>
@@ -3022,7 +3133,7 @@
         <v>4200</v>
       </c>
       <c r="O49" s="3">
-        <v>800</v>
+        <v>4200</v>
       </c>
       <c r="P49" s="3">
         <v>800</v>
@@ -3030,8 +3141,8 @@
       <c r="Q49" s="3">
         <v>800</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
+      <c r="R49" s="3">
+        <v>800</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>8</v>
@@ -3039,14 +3150,17 @@
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V49" s="3">
         <v>800</v>
       </c>
-      <c r="V49" s="3" t="s">
+      <c r="W49" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,55 +3286,58 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>900</v>
       </c>
       <c r="M52" s="3">
+        <v>900</v>
+      </c>
+      <c r="N52" s="3">
         <v>800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>400</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>8</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E54" s="3">
         <v>17500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17000</v>
-      </c>
-      <c r="G54" s="3">
-        <v>16300</v>
       </c>
       <c r="H54" s="3">
         <v>16300</v>
       </c>
       <c r="I54" s="3">
+        <v>16300</v>
+      </c>
+      <c r="J54" s="3">
         <v>18400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>18200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>20700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>20200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>20100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>19200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>19600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,117 +3533,121 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E57" s="3">
         <v>3300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2600</v>
-      </c>
-      <c r="R57" s="3">
-        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
       </c>
       <c r="T57" s="3">
+        <v>200</v>
+      </c>
+      <c r="U57" s="3">
         <v>100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1700</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1900</v>
       </c>
       <c r="J58" s="3">
         <v>1900</v>
       </c>
       <c r="K58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L58" s="3">
         <v>1400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3600</v>
-      </c>
-      <c r="R58" s="3">
-        <v>200</v>
       </c>
       <c r="S58" s="3">
         <v>200</v>
@@ -3522,137 +3656,146 @@
         <v>200</v>
       </c>
       <c r="U58" s="3">
+        <v>200</v>
+      </c>
+      <c r="V58" s="3">
         <v>3500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E59" s="3">
         <v>2700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>100</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
       <c r="T59" s="3">
         <v>0</v>
       </c>
       <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
         <v>3100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E60" s="3">
         <v>7600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8000</v>
-      </c>
-      <c r="R60" s="3">
-        <v>400</v>
       </c>
       <c r="S60" s="3">
         <v>400</v>
       </c>
       <c r="T60" s="3">
+        <v>400</v>
+      </c>
+      <c r="U60" s="3">
         <v>300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3663,13 +3806,13 @@
         <v>300</v>
       </c>
       <c r="F61" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G61" s="3">
         <v>400</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3725,7 +3871,7 @@
         <v>11900</v>
       </c>
       <c r="F62" s="3">
-        <v>11600</v>
+        <v>11900</v>
       </c>
       <c r="G62" s="3">
         <v>11600</v>
@@ -3737,7 +3883,7 @@
         <v>11600</v>
       </c>
       <c r="J62" s="3">
-        <v>13600</v>
+        <v>11600</v>
       </c>
       <c r="K62" s="3">
         <v>13600</v>
@@ -3749,7 +3895,7 @@
         <v>13600</v>
       </c>
       <c r="N62" s="3">
-        <v>19200</v>
+        <v>13600</v>
       </c>
       <c r="O62" s="3">
         <v>19200</v>
@@ -3761,7 +3907,7 @@
         <v>19200</v>
       </c>
       <c r="R62" s="3">
-        <v>0</v>
+        <v>19200</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E66" s="3">
         <v>19900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>18900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>18600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>20900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>20700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>25100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>26200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>25800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>27200</v>
-      </c>
-      <c r="R66" s="3">
-        <v>400</v>
       </c>
       <c r="S66" s="3">
         <v>400</v>
       </c>
       <c r="T66" s="3">
+        <v>400</v>
+      </c>
+      <c r="U66" s="3">
         <v>300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,55 +4466,58 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-700</v>
       </c>
-      <c r="Q72" s="3">
-        <v>0</v>
-      </c>
       <c r="R72" s="3">
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="S72" s="3">
         <v>-3000</v>
@@ -4352,13 +4526,16 @@
         <v>-3000</v>
       </c>
       <c r="U72" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="V72" s="3">
+        <v>0</v>
+      </c>
+      <c r="W72" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,8 +4726,11 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4552,61 +4738,64 @@
         <v>-2500</v>
       </c>
       <c r="E76" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-5000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-8800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-8000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>400</v>
-      </c>
-      <c r="S76" s="3">
-        <v>300</v>
       </c>
       <c r="T76" s="3">
         <v>300</v>
       </c>
       <c r="U76" s="3">
+        <v>300</v>
+      </c>
+      <c r="V76" s="3">
         <v>10600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>800</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5201,61 +5418,64 @@
         <v>100</v>
       </c>
       <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
-      </c>
-      <c r="K89" s="3">
-        <v>100</v>
       </c>
       <c r="L89" s="3">
         <v>100</v>
       </c>
       <c r="M89" s="3">
+        <v>100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2800</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,16 +5498,17 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -5298,8 +5519,8 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
@@ -5310,14 +5531,14 @@
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
@@ -5328,8 +5549,8 @@
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5490,21 +5720,21 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -5521,13 +5751,16 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>700</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5601,19 +5835,22 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-200</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-100</v>
       </c>
       <c r="F100" s="3">
         <v>-100</v>
       </c>
       <c r="G100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>500</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-100</v>
       </c>
       <c r="L100" s="3">
         <v>-100</v>
       </c>
       <c r="M100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
-      </c>
-      <c r="F102" s="3">
-        <v>400</v>
       </c>
       <c r="G102" s="3">
         <v>400</v>
       </c>
       <c r="H102" s="3">
+        <v>400</v>
+      </c>
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>200</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-100</v>
       </c>
       <c r="O102" s="3">
         <v>-100</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FZMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FZMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>FZMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E8" s="3">
         <v>5700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>25500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>25200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E9" s="3">
         <v>2200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>14200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>11100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E10" s="3">
         <v>3500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>11300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>14100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,22 +1124,25 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-400</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1130,11 +1150,11 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>900</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1142,8 +1162,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E17" s="3">
         <v>5700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>24600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>21800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>900</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1426,11 +1460,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1438,11 +1472,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>2000</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1450,11 +1484,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>5700</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1479,73 +1513,79 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>900</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1592,11 +1632,11 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
@@ -1604,78 +1644,84 @@
         <v>0</v>
       </c>
       <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>100</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>800</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1701,34 +1747,34 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
       </c>
       <c r="P24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-200</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
+      <c r="T24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
@@ -1736,11 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-      <c r="W24" s="3" t="s">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>800</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>800</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2206,11 +2276,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2218,11 +2288,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2000</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2230,11 +2300,11 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-5700</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>800</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>800</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="E41" s="3">
         <v>1400</v>
       </c>
       <c r="F41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>800</v>
       </c>
       <c r="R41" s="3">
         <v>800</v>
       </c>
       <c r="S41" s="3">
+        <v>800</v>
+      </c>
+      <c r="T41" s="3">
         <v>500</v>
-      </c>
-      <c r="T41" s="3">
-        <v>400</v>
       </c>
       <c r="U41" s="3">
         <v>400</v>
       </c>
       <c r="V41" s="3">
+        <v>400</v>
+      </c>
+      <c r="W41" s="3">
         <v>800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,124 +2794,130 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E43" s="3">
         <v>3100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6500</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E44" s="3">
         <v>8300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>7600</v>
-      </c>
-      <c r="F44" s="3">
-        <v>7000</v>
       </c>
       <c r="G44" s="3">
         <v>7000</v>
       </c>
       <c r="H44" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I44" s="3">
         <v>7100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>7800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>7900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>10800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>11000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>11100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>11000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>11200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>10300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>10600</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
-      </c>
       <c r="T44" s="3">
         <v>0</v>
       </c>
@@ -2829,13 +2925,16 @@
         <v>0</v>
       </c>
       <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
         <v>11400</v>
       </c>
-      <c r="W44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2846,19 +2945,19 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2899,73 +2998,79 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E46" s="3">
         <v>12800</v>
-      </c>
-      <c r="E46" s="3">
-        <v>12600</v>
       </c>
       <c r="F46" s="3">
         <v>12600</v>
       </c>
       <c r="G46" s="3">
+        <v>12600</v>
+      </c>
+      <c r="H46" s="3">
         <v>11800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>11300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>13100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>15200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>18000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>18700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2973,19 +3078,19 @@
         <v>2100</v>
       </c>
       <c r="E47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F47" s="3">
         <v>1800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1800</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -3002,8 +3107,8 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3115,16 +3226,16 @@
         <v>3100</v>
       </c>
       <c r="I49" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="J49" s="3">
         <v>3200</v>
       </c>
       <c r="K49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L49" s="3">
         <v>4100</v>
-      </c>
-      <c r="L49" s="3">
-        <v>4200</v>
       </c>
       <c r="M49" s="3">
         <v>4200</v>
@@ -3136,7 +3247,7 @@
         <v>4200</v>
       </c>
       <c r="P49" s="3">
-        <v>800</v>
+        <v>4200</v>
       </c>
       <c r="Q49" s="3">
         <v>800</v>
@@ -3144,8 +3255,8 @@
       <c r="R49" s="3">
         <v>800</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
+      <c r="S49" s="3">
+        <v>800</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>8</v>
@@ -3153,14 +3264,17 @@
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W49" s="3">
         <v>800</v>
       </c>
-      <c r="W49" s="3" t="s">
+      <c r="X49" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3319,28 +3439,28 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="M52" s="3">
         <v>900</v>
       </c>
       <c r="N52" s="3">
+        <v>900</v>
+      </c>
+      <c r="O52" s="3">
         <v>800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>400</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>8</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3542,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3428,64 +3554,67 @@
         <v>18000</v>
       </c>
       <c r="E54" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F54" s="3">
         <v>17500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17000</v>
-      </c>
-      <c r="H54" s="3">
-        <v>16300</v>
       </c>
       <c r="I54" s="3">
         <v>16300</v>
       </c>
       <c r="J54" s="3">
+        <v>16300</v>
+      </c>
+      <c r="K54" s="3">
         <v>18400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>20700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>20200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>20100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>19200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>19600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,73 +3664,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E57" s="3">
         <v>4300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2600</v>
-      </c>
-      <c r="S57" s="3">
-        <v>200</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
       </c>
       <c r="U57" s="3">
+        <v>200</v>
+      </c>
+      <c r="V57" s="3">
         <v>100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3608,49 +3742,49 @@
         <v>1100</v>
       </c>
       <c r="E58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F58" s="3">
         <v>1600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1700</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1900</v>
       </c>
       <c r="K58" s="3">
         <v>1900</v>
       </c>
       <c r="L58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M58" s="3">
         <v>1400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3600</v>
-      </c>
-      <c r="S58" s="3">
-        <v>200</v>
       </c>
       <c r="T58" s="3">
         <v>200</v>
@@ -3659,148 +3793,157 @@
         <v>200</v>
       </c>
       <c r="V58" s="3">
+        <v>200</v>
+      </c>
+      <c r="W58" s="3">
         <v>3500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>100</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
       <c r="U59" s="3">
         <v>0</v>
       </c>
       <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
         <v>3100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E60" s="3">
         <v>8200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8000</v>
-      </c>
-      <c r="S60" s="3">
-        <v>400</v>
       </c>
       <c r="T60" s="3">
         <v>400</v>
       </c>
       <c r="U60" s="3">
+        <v>400</v>
+      </c>
+      <c r="V60" s="3">
         <v>300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E61" s="3">
         <v>300</v>
@@ -3809,13 +3952,13 @@
         <v>300</v>
       </c>
       <c r="G61" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H61" s="3">
         <v>400</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3874,7 +4020,7 @@
         <v>11900</v>
       </c>
       <c r="G62" s="3">
-        <v>11600</v>
+        <v>11900</v>
       </c>
       <c r="H62" s="3">
         <v>11600</v>
@@ -3886,7 +4032,7 @@
         <v>11600</v>
       </c>
       <c r="K62" s="3">
-        <v>13600</v>
+        <v>11600</v>
       </c>
       <c r="L62" s="3">
         <v>13600</v>
@@ -3898,7 +4044,7 @@
         <v>13600</v>
       </c>
       <c r="O62" s="3">
-        <v>19200</v>
+        <v>13600</v>
       </c>
       <c r="P62" s="3">
         <v>19200</v>
@@ -3910,7 +4056,7 @@
         <v>19200</v>
       </c>
       <c r="S62" s="3">
-        <v>0</v>
+        <v>19200</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E66" s="3">
         <v>20500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>18900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>18600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>20700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>25100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>26200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>25800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>27200</v>
-      </c>
-      <c r="S66" s="3">
-        <v>400</v>
       </c>
       <c r="T66" s="3">
         <v>400</v>
       </c>
       <c r="U66" s="3">
+        <v>400</v>
+      </c>
+      <c r="V66" s="3">
         <v>300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,58 +4640,61 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-700</v>
       </c>
-      <c r="R72" s="3">
-        <v>0</v>
-      </c>
       <c r="S72" s="3">
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="T72" s="3">
         <v>-3000</v>
@@ -4529,13 +4703,16 @@
         <v>-3000</v>
       </c>
       <c r="V72" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="W72" s="3">
+        <v>0</v>
+      </c>
+      <c r="X72" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-2500</v>
+        <v>-3100</v>
       </c>
       <c r="E76" s="3">
         <v>-2500</v>
       </c>
       <c r="F76" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G76" s="3">
         <v>-2100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-5000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-8600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-8000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>400</v>
-      </c>
-      <c r="T76" s="3">
-        <v>300</v>
       </c>
       <c r="U76" s="3">
         <v>300</v>
       </c>
       <c r="V76" s="3">
+        <v>300</v>
+      </c>
+      <c r="W76" s="3">
         <v>10600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>800</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5421,61 +5638,64 @@
         <v>100</v>
       </c>
       <c r="F89" s="3">
+        <v>100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
-      </c>
-      <c r="L89" s="3">
-        <v>100</v>
       </c>
       <c r="M89" s="3">
         <v>100</v>
       </c>
       <c r="N89" s="3">
+        <v>100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2800</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5510,8 +5731,8 @@
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -5522,8 +5743,8 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
@@ -5534,14 +5755,14 @@
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
@@ -5552,8 +5773,8 @@
       <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5723,21 +5953,21 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -5754,13 +5984,16 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>700</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5838,19 +6072,22 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-200</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-100</v>
       </c>
       <c r="G100" s="3">
         <v>-100</v>
       </c>
       <c r="H100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>500</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-100</v>
       </c>
       <c r="M100" s="3">
         <v>-100</v>
       </c>
       <c r="N100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
-      </c>
-      <c r="G102" s="3">
-        <v>400</v>
       </c>
       <c r="H102" s="3">
         <v>400</v>
       </c>
       <c r="I102" s="3">
+        <v>400</v>
+      </c>
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>200</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-100</v>
       </c>
       <c r="P102" s="3">
         <v>-100</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FZMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FZMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>FZMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,333 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F8" s="3">
         <v>4300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>5700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>4400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>7000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>5700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>4000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>7300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>5700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>5100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>7800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>6800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>5700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>6000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>25500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>7300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>5600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>25200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="E9" s="3">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="F9" s="3">
         <v>1900</v>
       </c>
       <c r="G9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I9" s="3">
         <v>2900</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1800</v>
       </c>
       <c r="J9" s="3">
         <v>2000</v>
       </c>
       <c r="K9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M9" s="3">
         <v>2800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>4800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>3400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>3800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>3100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>14200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>4500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>3100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>11100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F10" s="3">
         <v>2400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>3500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>4100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>3700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>4500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>4400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>3800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>2900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>11300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>2800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>2500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>14100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1016,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1086,14 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,49 +1160,55 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-400</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>900</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1195,8 +1234,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1308,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1337,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>4900</v>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E17" s="3">
-        <v>5700</v>
+        <v>6700</v>
       </c>
       <c r="F17" s="3">
         <v>4900</v>
       </c>
       <c r="G17" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I17" s="3">
         <v>6500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>5600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>4400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>7800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>8800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>5200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>7300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>6400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>7700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>6900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>24600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>6600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>6100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>21800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-3100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-2000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>900</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>3400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,53 +1513,55 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>2000</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>5700</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1516,76 +1583,88 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-3100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>6200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-2000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>900</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>3500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1635,93 +1714,105 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
       <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
         <v>100</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-3100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>6100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>800</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>3300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1750,46 +1841,52 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>900</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-200</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
+      <c r="U24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1953,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-4100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>6000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>800</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>3300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-4100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>6000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>800</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>3300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2175,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2249,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,53 +2397,59 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-2000</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-5700</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2332,76 +2471,88 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-4100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>6000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>800</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>3300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2619,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-4100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>6000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>800</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>3300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2832,84 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>600</v>
+      </c>
+      <c r="F41" s="3">
         <v>1800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1400</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1500</v>
       </c>
       <c r="I41" s="3">
         <v>1200</v>
       </c>
       <c r="J41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1000</v>
-      </c>
-      <c r="M41" s="3">
-        <v>800</v>
-      </c>
-      <c r="N41" s="3">
-        <v>900</v>
       </c>
       <c r="O41" s="3">
         <v>800</v>
       </c>
       <c r="P41" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>800</v>
+      </c>
+      <c r="R41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,144 +2976,162 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F43" s="3">
         <v>2500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>3100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>3500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>4400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>3200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>3000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>4400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>6200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>4800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>3900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>3200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>5200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>3500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>3600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>4700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>6600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>6500</v>
       </c>
-      <c r="X43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F44" s="3">
         <v>8600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>8300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>7600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>7000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>7000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>7100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>7800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>7900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>8200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>10800</v>
-      </c>
-      <c r="N44" s="3">
-        <v>11000</v>
-      </c>
-      <c r="O44" s="3">
-        <v>11100</v>
       </c>
       <c r="P44" s="3">
         <v>11000</v>
       </c>
       <c r="Q44" s="3">
+        <v>11100</v>
+      </c>
+      <c r="R44" s="3">
+        <v>11000</v>
+      </c>
+      <c r="S44" s="3">
         <v>11200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>10300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>10600</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
-      </c>
-      <c r="U44" s="3">
-        <v>0</v>
-      </c>
       <c r="V44" s="3">
         <v>0</v>
       </c>
       <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
         <v>11400</v>
       </c>
-      <c r="X44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2942,29 +3139,29 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
@@ -3001,103 +3198,115 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12900</v>
+        <v>12000</v>
       </c>
       <c r="E46" s="3">
         <v>12800</v>
       </c>
       <c r="F46" s="3">
+        <v>12900</v>
+      </c>
+      <c r="G46" s="3">
+        <v>12800</v>
+      </c>
+      <c r="H46" s="3">
         <v>12600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>12600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>11800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>11300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>13100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>15200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>14000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>15500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>15100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>17200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>15200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>15500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>15800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>18000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>18700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F47" s="3">
         <v>2100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>2100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>1700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>2100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>1800</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3110,11 +3319,11 @@
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -3137,13 +3346,19 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -3205,16 +3420,22 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="E49" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="F49" s="3">
         <v>3100</v>
@@ -3229,19 +3450,19 @@
         <v>3100</v>
       </c>
       <c r="J49" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K49" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L49" s="3">
         <v>3200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>3200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>4100</v>
-      </c>
-      <c r="M49" s="3">
-        <v>4200</v>
-      </c>
-      <c r="N49" s="3">
-        <v>4200</v>
       </c>
       <c r="O49" s="3">
         <v>4200</v>
@@ -3250,31 +3471,37 @@
         <v>4200</v>
       </c>
       <c r="Q49" s="3">
-        <v>800</v>
+        <v>4200</v>
       </c>
       <c r="R49" s="3">
-        <v>800</v>
+        <v>4200</v>
       </c>
       <c r="S49" s="3">
         <v>800</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U49" s="3" t="s">
-        <v>8</v>
+      <c r="T49" s="3">
+        <v>800</v>
+      </c>
+      <c r="U49" s="3">
+        <v>800</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y49" s="3">
         <v>800</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3642,14 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3442,32 +3681,32 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>800</v>
-      </c>
-      <c r="P52" s="3">
-        <v>600</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>1000</v>
       </c>
       <c r="R52" s="3">
         <v>600</v>
       </c>
       <c r="S52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T52" s="3">
+        <v>600</v>
+      </c>
+      <c r="U52" s="3">
         <v>400</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3477,8 +3716,14 @@
       <c r="X52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3790,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>18300</v>
+      </c>
+      <c r="F54" s="3">
         <v>18000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>18000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>17500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>17400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>17000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>16300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>16300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>18400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>18200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>20700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>20200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>22200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>20100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>17400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>17200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>19200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>19600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,307 +3924,333 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F57" s="3">
         <v>4400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2400</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>2600</v>
-      </c>
-      <c r="R57" s="3">
-        <v>1500</v>
       </c>
       <c r="S57" s="3">
         <v>2600</v>
       </c>
       <c r="T57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>200</v>
-      </c>
-      <c r="V57" s="3">
-        <v>100</v>
-      </c>
-      <c r="W57" s="3">
-        <v>2500</v>
       </c>
       <c r="X57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F58" s="3">
         <v>1100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>2200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>2800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>3600</v>
-      </c>
-      <c r="T58" s="3">
-        <v>200</v>
-      </c>
-      <c r="U58" s="3">
-        <v>200</v>
       </c>
       <c r="V58" s="3">
         <v>200</v>
       </c>
       <c r="W58" s="3">
-        <v>3500</v>
+        <v>200</v>
       </c>
       <c r="X58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F59" s="3">
         <v>3000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>100</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
       <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
         <v>3100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F60" s="3">
         <v>8500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>8200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>7600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>7200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>7400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>6900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>8000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>7300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>5800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>7100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>6900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>6500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>8000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>9000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>200</v>
+      </c>
+      <c r="F61" s="3">
         <v>700</v>
-      </c>
-      <c r="E61" s="3">
-        <v>300</v>
-      </c>
-      <c r="F61" s="3">
-        <v>300</v>
       </c>
       <c r="G61" s="3">
         <v>300</v>
       </c>
       <c r="H61" s="3">
+        <v>300</v>
+      </c>
+      <c r="I61" s="3">
+        <v>300</v>
+      </c>
+      <c r="J61" s="3">
         <v>400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -4005,16 +4290,22 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11900</v>
+        <v>11600</v>
       </c>
       <c r="E62" s="3">
-        <v>11900</v>
+        <v>11600</v>
       </c>
       <c r="F62" s="3">
         <v>11900</v>
@@ -4023,10 +4314,10 @@
         <v>11900</v>
       </c>
       <c r="H62" s="3">
-        <v>11600</v>
+        <v>11900</v>
       </c>
       <c r="I62" s="3">
-        <v>11600</v>
+        <v>11900</v>
       </c>
       <c r="J62" s="3">
         <v>11600</v>
@@ -4035,10 +4326,10 @@
         <v>11600</v>
       </c>
       <c r="L62" s="3">
-        <v>13600</v>
+        <v>11600</v>
       </c>
       <c r="M62" s="3">
-        <v>13600</v>
+        <v>11600</v>
       </c>
       <c r="N62" s="3">
         <v>13600</v>
@@ -4047,10 +4338,10 @@
         <v>13600</v>
       </c>
       <c r="P62" s="3">
-        <v>19200</v>
+        <v>13600</v>
       </c>
       <c r="Q62" s="3">
-        <v>19200</v>
+        <v>13600</v>
       </c>
       <c r="R62" s="3">
         <v>19200</v>
@@ -4059,10 +4350,10 @@
         <v>19200</v>
       </c>
       <c r="T62" s="3">
-        <v>0</v>
+        <v>19200</v>
       </c>
       <c r="U62" s="3">
-        <v>0</v>
+        <v>19200</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4073,8 +4364,14 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4586,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>21700</v>
+      </c>
+      <c r="F66" s="3">
         <v>21100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>20500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>19900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>19500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>19400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>18900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>18600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>19600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>20900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>19300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>19000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>20700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>25100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>26200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>25800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>27200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>9000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4910,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4984,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-5300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-4600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-4500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-4000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-4200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-4300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-3900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-2600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-4000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-2400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-700</v>
       </c>
-      <c r="S72" s="3">
-        <v>0</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-3000</v>
-      </c>
       <c r="U72" s="3">
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="V72" s="3">
         <v>-3000</v>
       </c>
       <c r="W72" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="X72" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5280,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-8800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-8600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-8000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>10600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5428,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-4100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>6000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>800</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>3300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,13 +5613,15 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -5286,8 +5683,14 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6053,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E89" s="3">
-        <v>100</v>
+        <v>-2000</v>
       </c>
       <c r="F89" s="3">
         <v>100</v>
       </c>
       <c r="G89" s="3">
+        <v>100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>100</v>
       </c>
       <c r="L89" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>100</v>
       </c>
       <c r="N89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-1500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>2800</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,13 +6159,15 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-100</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>8</v>
@@ -5734,11 +6175,11 @@
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -5746,11 +6187,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
@@ -5758,17 +6199,17 @@
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>8</v>
@@ -5776,11 +6217,11 @@
       <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -5788,8 +6229,14 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,13 +6377,19 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5956,24 +6415,24 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
@@ -5987,13 +6446,19 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>700</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6483,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6075,19 +6542,25 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-1000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-200</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6775,88 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>800</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-1600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>1300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6923,84 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>200</v>
-      </c>
-      <c r="T102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U102" s="3">
-        <v>0</v>
       </c>
       <c r="V102" s="3">
         <v>-100</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y102" s="3">
         <v>600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FZMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FZMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>FZMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,259 +665,269 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E8" s="3">
         <v>4600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>25500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>25200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E9" s="3">
         <v>1600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>14200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>11100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -925,73 +935,76 @@
         <v>3000</v>
       </c>
       <c r="E10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F10" s="3">
         <v>3600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>11300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>14100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,31 +1183,34 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-400</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1198,11 +1218,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>900</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1210,8 +1230,8 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1240,13 +1260,16 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>4700</v>
       </c>
       <c r="E17" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F17" s="3">
         <v>6700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>24600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>21800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="F18" s="3">
         <v>-600</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>900</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,20 +1548,21 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1536,11 +1570,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1548,11 +1582,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>2000</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1560,11 +1594,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>5700</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1589,82 +1623,88 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>0</v>
       </c>
       <c r="E21" s="3">
         <v>-300</v>
       </c>
       <c r="F21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>6200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>900</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
       <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1720,11 +1760,11 @@
         <v>0</v>
       </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>100</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
@@ -1732,87 +1772,93 @@
         <v>0</v>
       </c>
       <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
         <v>100</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>800</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1847,34 +1893,34 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>100</v>
       </c>
       <c r="R24" s="3">
         <v>100</v>
       </c>
       <c r="S24" s="3">
+        <v>100</v>
+      </c>
+      <c r="T24" s="3">
         <v>-400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-200</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
+      <c r="W24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X24" s="3">
         <v>0</v>
@@ -1882,11 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-      <c r="Z24" s="3" t="s">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>-400</v>
       </c>
       <c r="F26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>800</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>-400</v>
       </c>
       <c r="F27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>800</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,20 +2470,23 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2424,11 +2494,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2436,11 +2506,11 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-2000</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2448,11 +2518,11 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-5700</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2477,82 +2547,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>-400</v>
       </c>
       <c r="F33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>800</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>-400</v>
       </c>
       <c r="F35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>800</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1800</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1400</v>
       </c>
       <c r="H41" s="3">
         <v>1400</v>
       </c>
       <c r="I41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J41" s="3">
         <v>1200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>700</v>
-      </c>
-      <c r="T41" s="3">
-        <v>800</v>
       </c>
       <c r="U41" s="3">
         <v>800</v>
       </c>
       <c r="V41" s="3">
+        <v>800</v>
+      </c>
+      <c r="W41" s="3">
         <v>500</v>
-      </c>
-      <c r="W41" s="3">
-        <v>400</v>
       </c>
       <c r="X41" s="3">
         <v>400</v>
       </c>
       <c r="Y41" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z41" s="3">
         <v>800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,142 +3072,148 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>6500</v>
       </c>
-      <c r="Z43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E44" s="3">
         <v>9300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>8700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>8600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>7600</v>
-      </c>
-      <c r="I44" s="3">
-        <v>7000</v>
       </c>
       <c r="J44" s="3">
         <v>7000</v>
       </c>
       <c r="K44" s="3">
+        <v>7000</v>
+      </c>
+      <c r="L44" s="3">
         <v>7100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>10800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>11000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>11100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>11000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>11200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>10300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>10600</v>
       </c>
-      <c r="V44" s="3">
-        <v>0</v>
-      </c>
       <c r="W44" s="3">
         <v>0</v>
       </c>
@@ -3125,13 +3221,16 @@
         <v>0</v>
       </c>
       <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
         <v>11400</v>
       </c>
-      <c r="Z44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3139,10 +3238,10 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -3151,19 +3250,19 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -3204,111 +3303,117 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12800</v>
-      </c>
-      <c r="H46" s="3">
-        <v>12600</v>
       </c>
       <c r="I46" s="3">
         <v>12600</v>
       </c>
       <c r="J46" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K46" s="3">
         <v>11800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>14000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>15200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>15500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>15800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>18000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>18700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E47" s="3">
         <v>2300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2200</v>
-      </c>
-      <c r="F47" s="3">
-        <v>2100</v>
       </c>
       <c r="G47" s="3">
         <v>2100</v>
       </c>
       <c r="H47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I47" s="3">
         <v>1800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1800</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
@@ -3325,8 +3430,8 @@
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -3352,17 +3457,20 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>400</v>
+      </c>
+      <c r="E48" s="3">
         <v>100</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
@@ -3426,19 +3534,22 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E49" s="3">
         <v>3300</v>
       </c>
       <c r="F49" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="G49" s="3">
         <v>3100</v>
@@ -3456,16 +3567,16 @@
         <v>3100</v>
       </c>
       <c r="L49" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="M49" s="3">
         <v>3200</v>
       </c>
       <c r="N49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="O49" s="3">
         <v>4100</v>
-      </c>
-      <c r="O49" s="3">
-        <v>4200</v>
       </c>
       <c r="P49" s="3">
         <v>4200</v>
@@ -3477,7 +3588,7 @@
         <v>4200</v>
       </c>
       <c r="S49" s="3">
-        <v>800</v>
+        <v>4200</v>
       </c>
       <c r="T49" s="3">
         <v>800</v>
@@ -3485,8 +3596,8 @@
       <c r="U49" s="3">
         <v>800</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>8</v>
+      <c r="V49" s="3">
+        <v>800</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>8</v>
@@ -3494,14 +3605,17 @@
       <c r="X49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z49" s="3">
         <v>800</v>
       </c>
-      <c r="Z49" s="3" t="s">
+      <c r="AA49" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3687,28 +3807,28 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3">
         <v>900</v>
       </c>
       <c r="Q52" s="3">
+        <v>900</v>
+      </c>
+      <c r="R52" s="3">
         <v>800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>400</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>8</v>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E54" s="3">
         <v>17800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>18300</v>
-      </c>
-      <c r="F54" s="3">
-        <v>18000</v>
       </c>
       <c r="G54" s="3">
         <v>18000</v>
       </c>
       <c r="H54" s="3">
+        <v>18000</v>
+      </c>
+      <c r="I54" s="3">
         <v>17500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>17000</v>
-      </c>
-      <c r="K54" s="3">
-        <v>16300</v>
       </c>
       <c r="L54" s="3">
         <v>16300</v>
       </c>
       <c r="M54" s="3">
+        <v>16300</v>
+      </c>
+      <c r="N54" s="3">
         <v>18400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>20700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>20200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>22200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>20100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>17200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>19200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>19600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,141 +4056,145 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E57" s="3">
         <v>4600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2600</v>
-      </c>
-      <c r="V57" s="3">
-        <v>200</v>
       </c>
       <c r="W57" s="3">
         <v>200</v>
       </c>
       <c r="X57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y57" s="3">
         <v>100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E58" s="3">
         <v>2100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2600</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1100</v>
       </c>
       <c r="G58" s="3">
         <v>1100</v>
       </c>
       <c r="H58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1700</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1900</v>
       </c>
       <c r="N58" s="3">
         <v>1900</v>
       </c>
       <c r="O58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P58" s="3">
         <v>1400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3600</v>
-      </c>
-      <c r="V58" s="3">
-        <v>200</v>
       </c>
       <c r="W58" s="3">
         <v>200</v>
@@ -4069,175 +4203,184 @@
         <v>200</v>
       </c>
       <c r="Y58" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z58" s="3">
         <v>3500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>100</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
       <c r="X59" s="3">
         <v>0</v>
       </c>
       <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
         <v>3100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E60" s="3">
         <v>9800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8000</v>
-      </c>
-      <c r="V60" s="3">
-        <v>400</v>
       </c>
       <c r="W60" s="3">
         <v>400</v>
       </c>
       <c r="X60" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y60" s="3">
         <v>300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>9000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>200</v>
       </c>
       <c r="F61" s="3">
+        <v>200</v>
+      </c>
+      <c r="G61" s="3">
         <v>700</v>
-      </c>
-      <c r="G61" s="3">
-        <v>300</v>
       </c>
       <c r="H61" s="3">
         <v>300</v>
@@ -4246,13 +4389,13 @@
         <v>300</v>
       </c>
       <c r="J61" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K61" s="3">
         <v>400</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4308,7 +4454,7 @@
         <v>11600</v>
       </c>
       <c r="F62" s="3">
-        <v>11900</v>
+        <v>11600</v>
       </c>
       <c r="G62" s="3">
         <v>11900</v>
@@ -4320,7 +4466,7 @@
         <v>11900</v>
       </c>
       <c r="J62" s="3">
-        <v>11600</v>
+        <v>11900</v>
       </c>
       <c r="K62" s="3">
         <v>11600</v>
@@ -4332,7 +4478,7 @@
         <v>11600</v>
       </c>
       <c r="N62" s="3">
-        <v>13600</v>
+        <v>11600</v>
       </c>
       <c r="O62" s="3">
         <v>13600</v>
@@ -4344,7 +4490,7 @@
         <v>13600</v>
       </c>
       <c r="R62" s="3">
-        <v>19200</v>
+        <v>13600</v>
       </c>
       <c r="S62" s="3">
         <v>19200</v>
@@ -4356,7 +4502,7 @@
         <v>19200</v>
       </c>
       <c r="V62" s="3">
-        <v>0</v>
+        <v>19200</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E66" s="3">
         <v>21600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>20900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>25100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>26200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>25800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>27200</v>
-      </c>
-      <c r="V66" s="3">
-        <v>400</v>
       </c>
       <c r="W66" s="3">
         <v>400</v>
       </c>
       <c r="X66" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y66" s="3">
         <v>300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>9000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,67 +5161,70 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-700</v>
       </c>
-      <c r="U72" s="3">
-        <v>0</v>
-      </c>
       <c r="V72" s="3">
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="W72" s="3">
         <v>-3000</v>
@@ -5059,13 +5233,16 @@
         <v>-3000</v>
       </c>
       <c r="Y72" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="Z72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3100</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-2500</v>
       </c>
       <c r="H76" s="3">
         <v>-2500</v>
       </c>
       <c r="I76" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J76" s="3">
         <v>-2100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-5000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-8800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-8600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-8000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>400</v>
-      </c>
-      <c r="W76" s="3">
-        <v>300</v>
       </c>
       <c r="X76" s="3">
         <v>300</v>
       </c>
       <c r="Y76" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z76" s="3">
         <v>10600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>-400</v>
       </c>
       <c r="F81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>800</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5624,7 +5823,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,19 +6273,22 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2000</v>
-      </c>
-      <c r="F89" s="3">
-        <v>100</v>
       </c>
       <c r="G89" s="3">
         <v>100</v>
@@ -6080,61 +6297,64 @@
         <v>100</v>
       </c>
       <c r="I89" s="3">
+        <v>100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
-      </c>
-      <c r="O89" s="3">
-        <v>100</v>
       </c>
       <c r="P89" s="3">
         <v>100</v>
       </c>
       <c r="Q89" s="3">
+        <v>100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2800</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,16 +6381,17 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>8</v>
@@ -6181,8 +6402,8 @@
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -6193,8 +6414,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
@@ -6205,14 +6426,14 @@
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>8</v>
@@ -6223,8 +6444,8 @@
       <c r="V91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,17 +6610,20 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -6421,21 +6651,21 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>8</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -6452,13 +6682,16 @@
         <v>0</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>700</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6548,19 +6782,22 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-1000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-200</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7024,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-100</v>
       </c>
       <c r="J100" s="3">
         <v>-100</v>
       </c>
       <c r="K100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>500</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-100</v>
       </c>
       <c r="P100" s="3">
         <v>-100</v>
       </c>
       <c r="Q100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R100" s="3">
         <v>700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
-      </c>
-      <c r="J102" s="3">
-        <v>400</v>
       </c>
       <c r="K102" s="3">
         <v>400</v>
       </c>
       <c r="L102" s="3">
+        <v>400</v>
+      </c>
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>200</v>
-      </c>
-      <c r="R102" s="3">
-        <v>-100</v>
       </c>
       <c r="S102" s="3">
         <v>-100</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FZMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FZMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>FZMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,279 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E8" s="3">
         <v>4700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>25500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>25200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E9" s="3">
         <v>1700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>14200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>11100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -938,73 +948,76 @@
         <v>3000</v>
       </c>
       <c r="F10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G10" s="3">
         <v>3600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>11300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>14100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,34 +1203,37 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-400</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1221,11 +1241,11 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>900</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1233,8 +1253,8 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1272,7 +1295,7 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,85 +1392,89 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E17" s="3">
         <v>4700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>24600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>21800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,76 +1482,79 @@
         <v>0</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-600</v>
       </c>
       <c r="G18" s="3">
         <v>-600</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>900</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1561,11 +1595,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1573,11 +1607,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1585,11 +1619,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>2000</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1597,11 +1631,11 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>5700</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1626,85 +1660,91 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E21" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
         <v>-300</v>
       </c>
       <c r="G21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>6200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>900</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
       <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1763,11 +1803,11 @@
         <v>0</v>
       </c>
       <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>100</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
@@ -1775,90 +1815,96 @@
         <v>0</v>
       </c>
       <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
         <v>100</v>
       </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>800</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>3300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1896,34 +1942,34 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>900</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-100</v>
-      </c>
-      <c r="R24" s="3">
-        <v>100</v>
       </c>
       <c r="S24" s="3">
         <v>100</v>
       </c>
       <c r="T24" s="3">
+        <v>100</v>
+      </c>
+      <c r="U24" s="3">
         <v>-400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-200</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
+      <c r="X24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y24" s="3">
         <v>0</v>
@@ -1931,11 +1977,14 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-      <c r="AA24" s="3" t="s">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-400</v>
       </c>
       <c r="F26" s="3">
         <v>-400</v>
       </c>
       <c r="G26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>800</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-400</v>
       </c>
       <c r="F27" s="3">
         <v>-400</v>
       </c>
       <c r="G27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>800</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>3300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2485,11 +2555,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2497,11 +2567,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2509,11 +2579,11 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-2000</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2521,11 +2591,11 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-5700</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2550,85 +2620,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-400</v>
       </c>
       <c r="F33" s="3">
         <v>-400</v>
       </c>
       <c r="G33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>800</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>3300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-400</v>
       </c>
       <c r="F35" s="3">
         <v>-400</v>
       </c>
       <c r="G35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>800</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>3300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1800</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1400</v>
       </c>
       <c r="I41" s="3">
         <v>1400</v>
       </c>
       <c r="J41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>700</v>
-      </c>
-      <c r="U41" s="3">
-        <v>800</v>
       </c>
       <c r="V41" s="3">
         <v>800</v>
       </c>
       <c r="W41" s="3">
+        <v>800</v>
+      </c>
+      <c r="X41" s="3">
         <v>500</v>
-      </c>
-      <c r="X41" s="3">
-        <v>400</v>
       </c>
       <c r="Y41" s="3">
         <v>400</v>
       </c>
       <c r="Z41" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA41" s="3">
         <v>800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,148 +3165,154 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E43" s="3">
         <v>3000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>6500</v>
       </c>
-      <c r="AA43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E44" s="3">
         <v>9400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>9300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>8700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>8300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>7600</v>
-      </c>
-      <c r="J44" s="3">
-        <v>7000</v>
       </c>
       <c r="K44" s="3">
         <v>7000</v>
       </c>
       <c r="L44" s="3">
+        <v>7000</v>
+      </c>
+      <c r="M44" s="3">
         <v>7100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>8200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>10800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>11000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>11100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>11000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>11200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>10300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>10600</v>
       </c>
-      <c r="W44" s="3">
-        <v>0</v>
-      </c>
       <c r="X44" s="3">
         <v>0</v>
       </c>
@@ -3224,27 +3320,30 @@
         <v>0</v>
       </c>
       <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
         <v>11400</v>
       </c>
-      <c r="AA44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -3253,19 +3352,19 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -3306,8 +3405,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3315,108 +3417,111 @@
         <v>13000</v>
       </c>
       <c r="E46" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F46" s="3">
         <v>12000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12800</v>
-      </c>
-      <c r="I46" s="3">
-        <v>12600</v>
       </c>
       <c r="J46" s="3">
         <v>12600</v>
       </c>
       <c r="K46" s="3">
+        <v>12600</v>
+      </c>
+      <c r="L46" s="3">
         <v>11800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>14000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>15200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>15500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>15800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>18000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>18700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E47" s="3">
         <v>2500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2200</v>
-      </c>
-      <c r="G47" s="3">
-        <v>2100</v>
       </c>
       <c r="H47" s="3">
         <v>2100</v>
       </c>
       <c r="I47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J47" s="3">
         <v>1800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1800</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
@@ -3433,8 +3538,8 @@
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3469,11 +3577,11 @@
         <v>400</v>
       </c>
       <c r="E48" s="3">
+        <v>400</v>
+      </c>
+      <c r="F48" s="3">
         <v>100</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
       <c r="G48" s="3">
         <v>0</v>
       </c>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3546,13 +3657,13 @@
         <v>3200</v>
       </c>
       <c r="E49" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="F49" s="3">
         <v>3300</v>
       </c>
       <c r="G49" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="H49" s="3">
         <v>3100</v>
@@ -3570,16 +3681,16 @@
         <v>3100</v>
       </c>
       <c r="M49" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="N49" s="3">
         <v>3200</v>
       </c>
       <c r="O49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P49" s="3">
         <v>4100</v>
-      </c>
-      <c r="P49" s="3">
-        <v>4200</v>
       </c>
       <c r="Q49" s="3">
         <v>4200</v>
@@ -3591,7 +3702,7 @@
         <v>4200</v>
       </c>
       <c r="T49" s="3">
-        <v>800</v>
+        <v>4200</v>
       </c>
       <c r="U49" s="3">
         <v>800</v>
@@ -3599,8 +3710,8 @@
       <c r="V49" s="3">
         <v>800</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>8</v>
+      <c r="W49" s="3">
+        <v>800</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>8</v>
@@ -3608,14 +3719,17 @@
       <c r="Y49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="Z49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA49" s="3">
         <v>800</v>
       </c>
-      <c r="AA49" s="3" t="s">
+      <c r="AB49" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3810,28 +3930,28 @@
         <v>0</v>
       </c>
       <c r="P52" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
         <v>900</v>
       </c>
       <c r="R52" s="3">
+        <v>900</v>
+      </c>
+      <c r="S52" s="3">
         <v>800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>400</v>
-      </c>
-      <c r="W52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>8</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E54" s="3">
         <v>19100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18300</v>
-      </c>
-      <c r="G54" s="3">
-        <v>18000</v>
       </c>
       <c r="H54" s="3">
         <v>18000</v>
       </c>
       <c r="I54" s="3">
+        <v>18000</v>
+      </c>
+      <c r="J54" s="3">
         <v>17500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>17400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17000</v>
-      </c>
-      <c r="L54" s="3">
-        <v>16300</v>
       </c>
       <c r="M54" s="3">
         <v>16300</v>
       </c>
       <c r="N54" s="3">
+        <v>16300</v>
+      </c>
+      <c r="O54" s="3">
         <v>18400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>20700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>20200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>22200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>20100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>17400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>17200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>19200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>19600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4066,138 +4197,141 @@
         <v>4800</v>
       </c>
       <c r="E57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F57" s="3">
         <v>4600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2600</v>
-      </c>
-      <c r="W57" s="3">
-        <v>200</v>
       </c>
       <c r="X57" s="3">
         <v>200</v>
       </c>
       <c r="Y57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z57" s="3">
         <v>100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E58" s="3">
         <v>2600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2600</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1100</v>
       </c>
       <c r="H58" s="3">
         <v>1100</v>
       </c>
       <c r="I58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1700</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1900</v>
       </c>
       <c r="O58" s="3">
         <v>1900</v>
       </c>
       <c r="P58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3600</v>
-      </c>
-      <c r="W58" s="3">
-        <v>200</v>
       </c>
       <c r="X58" s="3">
         <v>200</v>
@@ -4206,167 +4340,176 @@
         <v>200</v>
       </c>
       <c r="Z58" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA58" s="3">
         <v>3500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E59" s="3">
         <v>4000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>100</v>
       </c>
-      <c r="X59" s="3">
-        <v>0</v>
-      </c>
       <c r="Y59" s="3">
         <v>0</v>
       </c>
       <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
         <v>3100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E60" s="3">
         <v>11300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8000</v>
-      </c>
-      <c r="W60" s="3">
-        <v>400</v>
       </c>
       <c r="X60" s="3">
         <v>400</v>
       </c>
       <c r="Y60" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z60" s="3">
         <v>300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>9000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4374,16 +4517,16 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>200</v>
       </c>
       <c r="G61" s="3">
+        <v>200</v>
+      </c>
+      <c r="H61" s="3">
         <v>700</v>
-      </c>
-      <c r="H61" s="3">
-        <v>300</v>
       </c>
       <c r="I61" s="3">
         <v>300</v>
@@ -4392,13 +4535,13 @@
         <v>300</v>
       </c>
       <c r="K61" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L61" s="3">
         <v>400</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4457,7 +4603,7 @@
         <v>11600</v>
       </c>
       <c r="G62" s="3">
-        <v>11900</v>
+        <v>11600</v>
       </c>
       <c r="H62" s="3">
         <v>11900</v>
@@ -4469,7 +4615,7 @@
         <v>11900</v>
       </c>
       <c r="K62" s="3">
-        <v>11600</v>
+        <v>11900</v>
       </c>
       <c r="L62" s="3">
         <v>11600</v>
@@ -4481,7 +4627,7 @@
         <v>11600</v>
       </c>
       <c r="O62" s="3">
-        <v>13600</v>
+        <v>11600</v>
       </c>
       <c r="P62" s="3">
         <v>13600</v>
@@ -4493,7 +4639,7 @@
         <v>13600</v>
       </c>
       <c r="S62" s="3">
-        <v>19200</v>
+        <v>13600</v>
       </c>
       <c r="T62" s="3">
         <v>19200</v>
@@ -4505,7 +4651,7 @@
         <v>19200</v>
       </c>
       <c r="W62" s="3">
-        <v>0</v>
+        <v>19200</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E66" s="3">
         <v>22900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>21100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>20500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>20900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>19000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>20700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>25100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>26200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>25800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>27200</v>
-      </c>
-      <c r="W66" s="3">
-        <v>400</v>
       </c>
       <c r="X66" s="3">
         <v>400</v>
       </c>
       <c r="Y66" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z66" s="3">
         <v>300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>9000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,8 +5335,11 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5173,61 +5347,61 @@
         <v>-6100</v>
       </c>
       <c r="E72" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-6000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-700</v>
       </c>
-      <c r="V72" s="3">
-        <v>0</v>
-      </c>
       <c r="W72" s="3">
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="X72" s="3">
         <v>-3000</v>
@@ -5236,13 +5410,16 @@
         <v>-3000</v>
       </c>
       <c r="Z72" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="AA72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,8 +5655,11 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5481,76 +5667,79 @@
         <v>-3900</v>
       </c>
       <c r="E76" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-2500</v>
       </c>
       <c r="I76" s="3">
         <v>-2500</v>
       </c>
       <c r="J76" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K76" s="3">
         <v>-2100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-5000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-8800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-8600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-8000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>400</v>
-      </c>
-      <c r="X76" s="3">
-        <v>300</v>
       </c>
       <c r="Y76" s="3">
         <v>300</v>
       </c>
       <c r="Z76" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA76" s="3">
         <v>10600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-400</v>
       </c>
       <c r="F81" s="3">
         <v>-400</v>
       </c>
       <c r="G81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>800</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>3300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5826,7 +6025,7 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,22 +6490,25 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2000</v>
-      </c>
-      <c r="G89" s="3">
-        <v>100</v>
       </c>
       <c r="H89" s="3">
         <v>100</v>
@@ -6300,61 +6517,64 @@
         <v>100</v>
       </c>
       <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
-      </c>
-      <c r="P89" s="3">
-        <v>100</v>
       </c>
       <c r="Q89" s="3">
         <v>100</v>
       </c>
       <c r="R89" s="3">
+        <v>100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2800</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,19 +6602,20 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
@@ -6405,8 +6626,8 @@
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -6417,8 +6638,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
@@ -6429,14 +6650,14 @@
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>8</v>
@@ -6447,8 +6668,8 @@
       <c r="W91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="X91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,20 +6840,23 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -6654,21 +6884,21 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
@@ -6685,13 +6915,16 @@
         <v>0</v>
       </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>700</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6785,19 +7019,22 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-200</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,85 +7270,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-100</v>
       </c>
       <c r="K100" s="3">
         <v>-100</v>
       </c>
       <c r="L100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>500</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-100</v>
       </c>
       <c r="Q100" s="3">
         <v>-100</v>
       </c>
       <c r="R100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S100" s="3">
         <v>700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
-      </c>
-      <c r="K102" s="3">
-        <v>400</v>
       </c>
       <c r="L102" s="3">
         <v>400</v>
       </c>
       <c r="M102" s="3">
+        <v>400</v>
+      </c>
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>200</v>
-      </c>
-      <c r="S102" s="3">
-        <v>-100</v>
       </c>
       <c r="T102" s="3">
         <v>-100</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FZMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FZMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>FZMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,284 +665,293 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E8" s="3">
         <v>4500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>25500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>7300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>25200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E9" s="3">
         <v>1500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>14200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>11100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="E10" s="3">
         <v>3000</v>
@@ -951,73 +960,76 @@
         <v>3000</v>
       </c>
       <c r="G10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H10" s="3">
         <v>3600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>11300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>14100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,26 +1236,26 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-400</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1244,11 +1263,11 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>900</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1256,8 +1275,8 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1286,19 +1305,22 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E17" s="3">
         <v>4500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>24600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>6100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>21800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-600</v>
       </c>
       <c r="H18" s="3">
         <v>-600</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>900</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>3400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,13 +1615,14 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1598,11 +1631,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1610,11 +1643,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1622,11 +1655,11 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>2000</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1634,11 +1667,11 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>5700</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1663,93 +1696,99 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E21" s="3">
         <v>100</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
       <c r="F21" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
         <v>-300</v>
       </c>
       <c r="H21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>6200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>900</v>
       </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
       <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>3500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1806,11 +1845,11 @@
         <v>0</v>
       </c>
       <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
         <v>100</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
       <c r="Y22" s="3">
         <v>0</v>
       </c>
@@ -1818,93 +1857,99 @@
         <v>0</v>
       </c>
       <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
         <v>100</v>
       </c>
-      <c r="AB22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>800</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>3300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1945,34 +1990,34 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>900</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-100</v>
-      </c>
-      <c r="S24" s="3">
-        <v>100</v>
       </c>
       <c r="T24" s="3">
         <v>100</v>
       </c>
       <c r="U24" s="3">
+        <v>100</v>
+      </c>
+      <c r="V24" s="3">
         <v>-400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-200</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
+      <c r="Y24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z24" s="3">
         <v>0</v>
@@ -1980,11 +2025,14 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-      <c r="AB24" s="3" t="s">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-400</v>
       </c>
       <c r="G26" s="3">
         <v>-400</v>
       </c>
       <c r="H26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>800</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>3300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-400</v>
       </c>
       <c r="G27" s="3">
         <v>-400</v>
       </c>
       <c r="H27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>800</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>3300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,13 +2609,16 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-4100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2558,11 +2627,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2570,11 +2639,11 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2582,11 +2651,11 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-2000</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2594,11 +2663,11 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-5700</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2623,88 +2692,94 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-400</v>
       </c>
       <c r="G33" s="3">
         <v>-400</v>
       </c>
       <c r="H33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>800</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>3300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-400</v>
       </c>
       <c r="G35" s="3">
         <v>-400</v>
       </c>
       <c r="H35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>800</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>3300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3093,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1800</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1400</v>
       </c>
       <c r="J41" s="3">
         <v>1400</v>
       </c>
       <c r="K41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L41" s="3">
         <v>1200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>700</v>
-      </c>
-      <c r="V41" s="3">
-        <v>800</v>
       </c>
       <c r="W41" s="3">
         <v>800</v>
       </c>
       <c r="X41" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y41" s="3">
         <v>500</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>400</v>
       </c>
       <c r="Z41" s="3">
         <v>400</v>
       </c>
       <c r="AA41" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB41" s="3">
         <v>800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,154 +3257,160 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>6500</v>
       </c>
-      <c r="AB43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E44" s="3">
         <v>9900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>9400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>9300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>8600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>8300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>7600</v>
-      </c>
-      <c r="K44" s="3">
-        <v>7000</v>
       </c>
       <c r="L44" s="3">
         <v>7000</v>
       </c>
       <c r="M44" s="3">
+        <v>7000</v>
+      </c>
+      <c r="N44" s="3">
         <v>7100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>8200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>10800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>11000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>11100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>11000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>11200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>10300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>10600</v>
       </c>
-      <c r="X44" s="3">
-        <v>0</v>
-      </c>
       <c r="Y44" s="3">
         <v>0</v>
       </c>
@@ -3323,30 +3418,33 @@
         <v>0</v>
       </c>
       <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
         <v>11400</v>
       </c>
-      <c r="AB44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -3355,19 +3453,19 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -3408,123 +3506,129 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13000</v>
+        <v>13800</v>
       </c>
       <c r="E46" s="3">
         <v>13000</v>
       </c>
       <c r="F46" s="3">
+        <v>13000</v>
+      </c>
+      <c r="G46" s="3">
         <v>12000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12800</v>
-      </c>
-      <c r="J46" s="3">
-        <v>12600</v>
       </c>
       <c r="K46" s="3">
         <v>12600</v>
       </c>
       <c r="L46" s="3">
+        <v>12600</v>
+      </c>
+      <c r="M46" s="3">
         <v>11800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>14000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>15100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>15200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>15500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>15800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>18000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>18700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E47" s="3">
         <v>2600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2200</v>
-      </c>
-      <c r="H47" s="3">
-        <v>2100</v>
       </c>
       <c r="I47" s="3">
         <v>2100</v>
       </c>
       <c r="J47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K47" s="3">
         <v>1800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1800</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
@@ -3541,8 +3645,8 @@
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -3568,23 +3672,26 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>400</v>
       </c>
       <c r="F48" s="3">
+        <v>400</v>
+      </c>
+      <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
@@ -3648,8 +3755,11 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3660,13 +3770,13 @@
         <v>3200</v>
       </c>
       <c r="F49" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="G49" s="3">
         <v>3300</v>
       </c>
       <c r="H49" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="I49" s="3">
         <v>3100</v>
@@ -3684,16 +3794,16 @@
         <v>3100</v>
       </c>
       <c r="N49" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="O49" s="3">
         <v>3200</v>
       </c>
       <c r="P49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Q49" s="3">
         <v>4100</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>4200</v>
       </c>
       <c r="R49" s="3">
         <v>4200</v>
@@ -3705,7 +3815,7 @@
         <v>4200</v>
       </c>
       <c r="U49" s="3">
-        <v>800</v>
+        <v>4200</v>
       </c>
       <c r="V49" s="3">
         <v>800</v>
@@ -3713,8 +3823,8 @@
       <c r="W49" s="3">
         <v>800</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>8</v>
+      <c r="X49" s="3">
+        <v>800</v>
       </c>
       <c r="Y49" s="3" t="s">
         <v>8</v>
@@ -3722,14 +3832,17 @@
       <c r="Z49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AA49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB49" s="3">
         <v>800</v>
       </c>
-      <c r="AB49" s="3" t="s">
+      <c r="AC49" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4004,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3933,28 +4052,28 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="R52" s="3">
         <v>900</v>
       </c>
       <c r="S52" s="3">
+        <v>900</v>
+      </c>
+      <c r="T52" s="3">
         <v>800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>400</v>
-      </c>
-      <c r="X52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y52" s="3" t="s">
         <v>8</v>
@@ -3968,8 +4087,11 @@
       <c r="AB52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E54" s="3">
         <v>19200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>19100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>18300</v>
-      </c>
-      <c r="H54" s="3">
-        <v>18000</v>
       </c>
       <c r="I54" s="3">
         <v>18000</v>
       </c>
       <c r="J54" s="3">
+        <v>18000</v>
+      </c>
+      <c r="K54" s="3">
         <v>17500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17000</v>
-      </c>
-      <c r="M54" s="3">
-        <v>16300</v>
       </c>
       <c r="N54" s="3">
         <v>16300</v>
       </c>
       <c r="O54" s="3">
+        <v>16300</v>
+      </c>
+      <c r="P54" s="3">
         <v>18400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>18200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>20700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>20200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>22200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>20100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>17400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>17200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>19200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>19600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,153 +4317,157 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4800</v>
+        <v>5700</v>
       </c>
       <c r="E57" s="3">
         <v>4800</v>
       </c>
       <c r="F57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G57" s="3">
         <v>4600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2600</v>
-      </c>
-      <c r="X57" s="3">
-        <v>200</v>
       </c>
       <c r="Y57" s="3">
         <v>200</v>
       </c>
       <c r="Z57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA57" s="3">
         <v>100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E58" s="3">
         <v>2400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2600</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1100</v>
       </c>
       <c r="I58" s="3">
         <v>1100</v>
       </c>
       <c r="J58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K58" s="3">
         <v>1600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1700</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1900</v>
       </c>
       <c r="P58" s="3">
         <v>1900</v>
       </c>
       <c r="Q58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R58" s="3">
         <v>1400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3600</v>
-      </c>
-      <c r="X58" s="3">
-        <v>200</v>
       </c>
       <c r="Y58" s="3">
         <v>200</v>
@@ -4343,193 +4476,202 @@
         <v>200</v>
       </c>
       <c r="AA58" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB58" s="3">
         <v>3500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E59" s="3">
         <v>4200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>100</v>
       </c>
-      <c r="Y59" s="3">
-        <v>0</v>
-      </c>
       <c r="Z59" s="3">
         <v>0</v>
       </c>
       <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3">
         <v>3100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E60" s="3">
         <v>11500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8000</v>
-      </c>
-      <c r="X60" s="3">
-        <v>400</v>
       </c>
       <c r="Y60" s="3">
         <v>400</v>
       </c>
       <c r="Z60" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA60" s="3">
         <v>300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>9000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>200</v>
       </c>
       <c r="H61" s="3">
+        <v>200</v>
+      </c>
+      <c r="I61" s="3">
         <v>700</v>
-      </c>
-      <c r="I61" s="3">
-        <v>300</v>
       </c>
       <c r="J61" s="3">
         <v>300</v>
@@ -4538,13 +4680,13 @@
         <v>300</v>
       </c>
       <c r="L61" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M61" s="3">
         <v>400</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -4588,13 +4730,16 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11600</v>
+        <v>7500</v>
       </c>
       <c r="E62" s="3">
         <v>11600</v>
@@ -4606,7 +4751,7 @@
         <v>11600</v>
       </c>
       <c r="H62" s="3">
-        <v>11900</v>
+        <v>11600</v>
       </c>
       <c r="I62" s="3">
         <v>11900</v>
@@ -4618,7 +4763,7 @@
         <v>11900</v>
       </c>
       <c r="L62" s="3">
-        <v>11600</v>
+        <v>11900</v>
       </c>
       <c r="M62" s="3">
         <v>11600</v>
@@ -4630,7 +4775,7 @@
         <v>11600</v>
       </c>
       <c r="P62" s="3">
-        <v>13600</v>
+        <v>11600</v>
       </c>
       <c r="Q62" s="3">
         <v>13600</v>
@@ -4642,7 +4787,7 @@
         <v>13600</v>
       </c>
       <c r="T62" s="3">
-        <v>19200</v>
+        <v>13600</v>
       </c>
       <c r="U62" s="3">
         <v>19200</v>
@@ -4654,7 +4799,7 @@
         <v>19200</v>
       </c>
       <c r="X62" s="3">
-        <v>0</v>
+        <v>19200</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -4668,8 +4813,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E66" s="3">
         <v>23100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>21700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>21100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>20500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>20900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>19300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>19000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>20700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>25100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>26200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>25800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>27200</v>
-      </c>
-      <c r="X66" s="3">
-        <v>400</v>
       </c>
       <c r="Y66" s="3">
         <v>400</v>
       </c>
       <c r="Z66" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA66" s="3">
         <v>300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>9000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,73 +5508,76 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6100</v>
+        <v>-2500</v>
       </c>
       <c r="E72" s="3">
         <v>-6100</v>
       </c>
       <c r="F72" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="G72" s="3">
         <v>-6000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-700</v>
       </c>
-      <c r="W72" s="3">
-        <v>0</v>
-      </c>
       <c r="X72" s="3">
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="Y72" s="3">
         <v>-3000</v>
@@ -5413,13 +5586,16 @@
         <v>-3000</v>
       </c>
       <c r="AA72" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="AB72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-3900</v>
+        <v>-300</v>
       </c>
       <c r="E76" s="3">
         <v>-3900</v>
       </c>
       <c r="F76" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="G76" s="3">
         <v>-3800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3100</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-2500</v>
       </c>
       <c r="J76" s="3">
         <v>-2500</v>
       </c>
       <c r="K76" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="L76" s="3">
         <v>-2100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-5000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-8800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-8600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-8000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>400</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>300</v>
       </c>
       <c r="Z76" s="3">
         <v>300</v>
       </c>
       <c r="AA76" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB76" s="3">
         <v>10600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-400</v>
       </c>
       <c r="G81" s="3">
         <v>-400</v>
       </c>
       <c r="H81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>800</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>3300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,13 +6210,14 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -6028,7 +6226,7 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,25 +6706,28 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2000</v>
-      </c>
-      <c r="H89" s="3">
-        <v>100</v>
       </c>
       <c r="I89" s="3">
         <v>100</v>
@@ -6520,61 +6736,64 @@
         <v>100</v>
       </c>
       <c r="K89" s="3">
+        <v>100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>100</v>
       </c>
       <c r="R89" s="3">
         <v>100</v>
       </c>
       <c r="S89" s="3">
+        <v>100</v>
+      </c>
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2800</v>
       </c>
-      <c r="AB89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,35 +6822,36 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3" t="s">
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -6641,8 +6861,8 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
@@ -6653,14 +6873,14 @@
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>8</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>8</v>
@@ -6671,8 +6891,8 @@
       <c r="X91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
+      <c r="Y91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
@@ -6683,8 +6903,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,23 +7069,26 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -6887,21 +7116,21 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>8</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
@@ -6918,13 +7147,16 @@
         <v>0</v>
       </c>
       <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
         <v>700</v>
       </c>
-      <c r="AB94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7022,19 +7255,22 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-200</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7515,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-100</v>
       </c>
       <c r="L100" s="3">
         <v>-100</v>
       </c>
       <c r="M100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>500</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-100</v>
       </c>
       <c r="R100" s="3">
         <v>-100</v>
       </c>
       <c r="S100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T100" s="3">
         <v>700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7681,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-1200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
-      </c>
-      <c r="L102" s="3">
-        <v>400</v>
       </c>
       <c r="M102" s="3">
         <v>400</v>
       </c>
       <c r="N102" s="3">
+        <v>400</v>
+      </c>
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>200</v>
-      </c>
-      <c r="T102" s="3">
-        <v>-100</v>
       </c>
       <c r="U102" s="3">
         <v>-100</v>
       </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FZMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FZMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>FZMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,397 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F8" s="3">
         <v>4900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>4500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>4700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>4600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>6100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>4300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>7000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>5700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>7300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>5700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>5100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>4800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>7800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>6800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>5700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>6000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>25500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>7300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>5600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>25200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F9" s="3">
         <v>2300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I9" s="3">
         <v>1700</v>
       </c>
-      <c r="G9" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2500</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J9" s="3">
-        <v>2200</v>
       </c>
       <c r="K9" s="3">
         <v>1900</v>
       </c>
       <c r="L9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N9" s="3">
         <v>2900</v>
-      </c>
-      <c r="M9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1800</v>
       </c>
       <c r="O9" s="3">
         <v>2000</v>
       </c>
       <c r="P9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R9" s="3">
         <v>2800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>4800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>2200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>2000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>3400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>3000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>3800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>3100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>14200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>4500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>3100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>11100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F10" s="3">
         <v>2600</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3000</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3000</v>
       </c>
       <c r="G10" s="3">
         <v>3000</v>
       </c>
       <c r="H10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J10" s="3">
         <v>3600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>3500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>4100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>3700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>4500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>2900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>2800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>4400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>3800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>2900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>11300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>2800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>2500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>14100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,64 +1259,70 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-400</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>900</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3">
+        <v>900</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1308,8 +1348,14 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1317,19 +1363,19 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1391,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F17" s="3">
         <v>5400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>4500</v>
       </c>
-      <c r="F17" s="3">
-        <v>4700</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J17" s="3">
         <v>6700</v>
-      </c>
-      <c r="I17" s="3">
-        <v>4900</v>
-      </c>
-      <c r="J17" s="3">
-        <v>5700</v>
       </c>
       <c r="K17" s="3">
         <v>4900</v>
       </c>
       <c r="L17" s="3">
+        <v>5700</v>
+      </c>
+      <c r="M17" s="3">
+        <v>4900</v>
+      </c>
+      <c r="N17" s="3">
         <v>6500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>5600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>5900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>7800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>8800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>5200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>5400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>7300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>6400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>7700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>6900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>24600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>6600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>6100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>21800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N18" s="3">
+        <v>500</v>
+      </c>
+      <c r="O18" s="3">
+        <v>100</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V18" s="3">
+        <v>500</v>
+      </c>
+      <c r="W18" s="3">
+        <v>400</v>
+      </c>
+      <c r="X18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>900</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>3400</v>
+      </c>
+      <c r="AE18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>500</v>
-      </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="T18" s="3">
-        <v>500</v>
-      </c>
-      <c r="U18" s="3">
-        <v>400</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-900</v>
-      </c>
-      <c r="X18" s="3">
-        <v>900</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>700</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>3400</v>
-      </c>
-      <c r="AC18" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,68 +1682,70 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>4100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>2000</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>5700</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
@@ -1699,91 +1767,103 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>3500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
+        <v>200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N21" s="3">
+        <v>200</v>
+      </c>
+      <c r="O21" s="3">
         <v>100</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="P21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R21" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="T21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V21" s="3">
+        <v>6200</v>
+      </c>
+      <c r="W21" s="3">
+        <v>400</v>
+      </c>
+      <c r="X21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>900</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>3500</v>
+      </c>
+      <c r="AE21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="L21" s="3">
-        <v>200</v>
-      </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="P21" s="3">
-        <v>1500</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="T21" s="3">
-        <v>6200</v>
-      </c>
-      <c r="U21" s="3">
-        <v>400</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-900</v>
-      </c>
-      <c r="X21" s="3">
-        <v>900</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>700</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>3500</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1791,10 +1871,10 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1848,108 +1928,120 @@
         <v>0</v>
       </c>
       <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
         <v>100</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
       <c r="AA22" s="3">
         <v>0</v>
       </c>
       <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
         <v>100</v>
       </c>
-      <c r="AC22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>3600</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
       <c r="G23" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>-300</v>
       </c>
       <c r="I23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-3100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>6100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-2000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>800</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
         <v>600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>3300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1993,46 +2085,52 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>900</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-200</v>
       </c>
-      <c r="X24" s="3" t="s">
+      <c r="Z24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y24" s="3" t="s">
+      <c r="AA24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-      <c r="AC24" s="3" t="s">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>3600</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="M26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N26" s="3">
+        <v>200</v>
+      </c>
+      <c r="O26" s="3">
+        <v>100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="Q26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V26" s="3">
+        <v>6000</v>
+      </c>
+      <c r="W26" s="3">
+        <v>300</v>
+      </c>
+      <c r="X26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="Z26" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>600</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
-        <v>200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>1400</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="T26" s="3">
-        <v>6000</v>
-      </c>
-      <c r="U26" s="3">
-        <v>300</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="X26" s="3">
-        <v>800</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>600</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>3300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>3600</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="M27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N27" s="3">
+        <v>200</v>
+      </c>
+      <c r="O27" s="3">
+        <v>100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="Q27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V27" s="3">
+        <v>6000</v>
+      </c>
+      <c r="W27" s="3">
+        <v>300</v>
+      </c>
+      <c r="X27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="Z27" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>600</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
-        <v>200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>1400</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="T27" s="3">
-        <v>6000</v>
-      </c>
-      <c r="U27" s="3">
-        <v>300</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="X27" s="3">
-        <v>800</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>600</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>3300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,68 +2746,74 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-4100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-5700</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2695,91 +2835,103 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>3600</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="M33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N33" s="3">
+        <v>200</v>
+      </c>
+      <c r="O33" s="3">
+        <v>100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="Q33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V33" s="3">
+        <v>6000</v>
+      </c>
+      <c r="W33" s="3">
+        <v>300</v>
+      </c>
+      <c r="X33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="Z33" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>600</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
-        <v>200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>1400</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="T33" s="3">
-        <v>6000</v>
-      </c>
-      <c r="U33" s="3">
-        <v>300</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="X33" s="3">
-        <v>800</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>600</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>3300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>3600</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="M35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N35" s="3">
+        <v>200</v>
+      </c>
+      <c r="O35" s="3">
+        <v>100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="Q35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V35" s="3">
+        <v>6000</v>
+      </c>
+      <c r="W35" s="3">
+        <v>300</v>
+      </c>
+      <c r="X35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="Z35" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>600</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
-        <v>200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>1400</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="T35" s="3">
-        <v>6000</v>
-      </c>
-      <c r="U35" s="3">
-        <v>300</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="X35" s="3">
-        <v>800</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>600</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>3300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,19 +3266,21 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
-      </c>
-      <c r="E41" s="3">
-        <v>500</v>
-      </c>
-      <c r="F41" s="3">
-        <v>600</v>
       </c>
       <c r="G41" s="3">
         <v>500</v>
@@ -3115,70 +3289,76 @@
         <v>600</v>
       </c>
       <c r="I41" s="3">
+        <v>500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1400</v>
-      </c>
-      <c r="L41" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M41" s="3">
-        <v>1500</v>
       </c>
       <c r="N41" s="3">
         <v>1200</v>
       </c>
       <c r="O41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1000</v>
-      </c>
-      <c r="R41" s="3">
-        <v>800</v>
-      </c>
-      <c r="S41" s="3">
-        <v>900</v>
       </c>
       <c r="T41" s="3">
         <v>800</v>
       </c>
       <c r="U41" s="3">
+        <v>900</v>
+      </c>
+      <c r="V41" s="3">
+        <v>800</v>
+      </c>
+      <c r="W41" s="3">
         <v>600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,174 +3440,192 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F43" s="3">
         <v>4000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>3000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>2200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>3500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>2500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>3100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>3500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>4400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>3200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>3000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>4400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>6200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>4800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>3900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>3200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>5200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>3500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>3600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>4700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>6600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>6500</v>
       </c>
-      <c r="AC43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F44" s="3">
         <v>9500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>9900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>9400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>9300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>8700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>8600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>8300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>7600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>7000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>7000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>7100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>7800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>7900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>8200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>10800</v>
-      </c>
-      <c r="S44" s="3">
-        <v>11000</v>
-      </c>
-      <c r="T44" s="3">
-        <v>11100</v>
       </c>
       <c r="U44" s="3">
         <v>11000</v>
       </c>
       <c r="V44" s="3">
+        <v>11100</v>
+      </c>
+      <c r="W44" s="3">
+        <v>11000</v>
+      </c>
+      <c r="X44" s="3">
         <v>11200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>10300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>10600</v>
       </c>
-      <c r="Y44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="3">
-        <v>0</v>
-      </c>
       <c r="AA44" s="3">
         <v>0</v>
       </c>
       <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
         <v>11400</v>
       </c>
-      <c r="AC44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3435,44 +3633,44 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
@@ -3509,132 +3707,144 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F46" s="3">
         <v>13800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>13000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>13000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>12000</v>
-      </c>
-      <c r="H46" s="3">
-        <v>12800</v>
-      </c>
-      <c r="I46" s="3">
-        <v>12900</v>
       </c>
       <c r="J46" s="3">
         <v>12800</v>
       </c>
       <c r="K46" s="3">
+        <v>12900</v>
+      </c>
+      <c r="L46" s="3">
+        <v>12800</v>
+      </c>
+      <c r="M46" s="3">
         <v>12600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>12600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>11800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>11300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>13100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>15200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>14000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>15500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>15100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>17200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>15200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>15500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>15800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>18000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>18700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F47" s="3">
         <v>2800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>2600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>2500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>2300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>2200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>2100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>2100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>2100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1800</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>8</v>
@@ -3648,11 +3858,11 @@
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
-      </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -3675,8 +3885,14 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3684,20 +3900,20 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
         <v>400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
@@ -3758,31 +3974,37 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E49" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="F49" s="3">
         <v>3200</v>
       </c>
       <c r="G49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I49" s="3">
         <v>3300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>3300</v>
-      </c>
-      <c r="I49" s="3">
-        <v>3100</v>
-      </c>
-      <c r="J49" s="3">
-        <v>3100</v>
       </c>
       <c r="K49" s="3">
         <v>3100</v>
@@ -3797,19 +4019,19 @@
         <v>3100</v>
       </c>
       <c r="O49" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P49" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Q49" s="3">
         <v>3200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>3200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>4100</v>
-      </c>
-      <c r="R49" s="3">
-        <v>4200</v>
-      </c>
-      <c r="S49" s="3">
-        <v>4200</v>
       </c>
       <c r="T49" s="3">
         <v>4200</v>
@@ -3818,31 +4040,37 @@
         <v>4200</v>
       </c>
       <c r="V49" s="3">
-        <v>800</v>
+        <v>4200</v>
       </c>
       <c r="W49" s="3">
-        <v>800</v>
+        <v>4200</v>
       </c>
       <c r="X49" s="3">
         <v>800</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z49" s="3" t="s">
-        <v>8</v>
+      <c r="Y49" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>800</v>
       </c>
       <c r="AA49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB49" s="3">
-        <v>800</v>
+      <c r="AB49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>800</v>
+      </c>
+      <c r="AE49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4241,14 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4055,31 +4295,31 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
         <v>900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>800</v>
-      </c>
-      <c r="U52" s="3">
-        <v>600</v>
-      </c>
-      <c r="V52" s="3">
-        <v>1000</v>
       </c>
       <c r="W52" s="3">
         <v>600</v>
       </c>
       <c r="X52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z52" s="3">
         <v>400</v>
-      </c>
-      <c r="Y52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>8</v>
@@ -4090,8 +4330,14 @@
       <c r="AC52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>18400</v>
+      </c>
+      <c r="F54" s="3">
         <v>19800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>19200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>19100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>17800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>18300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>18000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>18000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>17500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>17400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>17000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>16300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>16300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>18400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>18200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>20700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>20200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>22200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>20100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>17400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>17200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>19200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>19600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,382 +4578,408 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F57" s="3">
         <v>5700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>4800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>4600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>4500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>4400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>2700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>2400</v>
-      </c>
-      <c r="V57" s="3">
-        <v>2600</v>
-      </c>
-      <c r="W57" s="3">
-        <v>1500</v>
       </c>
       <c r="X57" s="3">
         <v>2600</v>
       </c>
       <c r="Y57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="AA57" s="3">
         <v>200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>200</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB57" s="3">
-        <v>2500</v>
       </c>
       <c r="AC57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F58" s="3">
         <v>2100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2400</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2600</v>
-      </c>
-      <c r="G58" s="3">
-        <v>2100</v>
       </c>
       <c r="H58" s="3">
         <v>2600</v>
       </c>
       <c r="I58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K58" s="3">
         <v>1100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>2200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>2800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>3600</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>200</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>200</v>
       </c>
       <c r="AA58" s="3">
         <v>200</v>
       </c>
       <c r="AB58" s="3">
-        <v>3500</v>
+        <v>200</v>
       </c>
       <c r="AC58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F59" s="3">
         <v>4500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>4200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>2100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>2200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>100</v>
       </c>
-      <c r="Z59" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>0</v>
-      </c>
       <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="3">
         <v>3100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F60" s="3">
         <v>12400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>11500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>11300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>9800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>9900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>8500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>8200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>7600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>7200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>7400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>7000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>8000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>7300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>5800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>5400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>7100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>5900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>6900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>6500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>8000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>9000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>200</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>700</v>
-      </c>
-      <c r="J61" s="3">
-        <v>300</v>
-      </c>
-      <c r="K61" s="3">
-        <v>300</v>
       </c>
       <c r="L61" s="3">
         <v>300</v>
       </c>
       <c r="M61" s="3">
+        <v>300</v>
+      </c>
+      <c r="N61" s="3">
+        <v>300</v>
+      </c>
+      <c r="O61" s="3">
         <v>400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>400</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -4733,8 +5019,14 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4742,10 +5034,10 @@
         <v>7500</v>
       </c>
       <c r="E62" s="3">
-        <v>11600</v>
+        <v>7500</v>
       </c>
       <c r="F62" s="3">
-        <v>11600</v>
+        <v>7500</v>
       </c>
       <c r="G62" s="3">
         <v>11600</v>
@@ -4754,10 +5046,10 @@
         <v>11600</v>
       </c>
       <c r="I62" s="3">
-        <v>11900</v>
+        <v>11600</v>
       </c>
       <c r="J62" s="3">
-        <v>11900</v>
+        <v>11600</v>
       </c>
       <c r="K62" s="3">
         <v>11900</v>
@@ -4766,10 +5058,10 @@
         <v>11900</v>
       </c>
       <c r="M62" s="3">
-        <v>11600</v>
+        <v>11900</v>
       </c>
       <c r="N62" s="3">
-        <v>11600</v>
+        <v>11900</v>
       </c>
       <c r="O62" s="3">
         <v>11600</v>
@@ -4778,10 +5070,10 @@
         <v>11600</v>
       </c>
       <c r="Q62" s="3">
-        <v>13600</v>
+        <v>11600</v>
       </c>
       <c r="R62" s="3">
-        <v>13600</v>
+        <v>11600</v>
       </c>
       <c r="S62" s="3">
         <v>13600</v>
@@ -4790,10 +5082,10 @@
         <v>13600</v>
       </c>
       <c r="U62" s="3">
-        <v>19200</v>
+        <v>13600</v>
       </c>
       <c r="V62" s="3">
-        <v>19200</v>
+        <v>13600</v>
       </c>
       <c r="W62" s="3">
         <v>19200</v>
@@ -4802,10 +5094,10 @@
         <v>19200</v>
       </c>
       <c r="Y62" s="3">
-        <v>0</v>
+        <v>19200</v>
       </c>
       <c r="Z62" s="3">
-        <v>0</v>
+        <v>19200</v>
       </c>
       <c r="AA62" s="3">
         <v>0</v>
@@ -4816,8 +5108,14 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F66" s="3">
         <v>20100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>23100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>22900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>21600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>21700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>21100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>20500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>19900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>19500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>19400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>18900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>18600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>19600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>20900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>19300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>19000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>20700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>25100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>26200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>25800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>27200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>9000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-6100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-6100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-6000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-5600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-5300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-4600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-4500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-4000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-4200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-4300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-3900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-4000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-2100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-2400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-700</v>
       </c>
-      <c r="X72" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>-3000</v>
-      </c>
       <c r="Z72" s="3">
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="AA72" s="3">
         <v>-3000</v>
       </c>
       <c r="AB72" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="AC72" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="AD72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-3900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-3400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-3100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-2800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-5000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-8800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-8600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-8000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>10600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>3600</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="M81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N81" s="3">
+        <v>200</v>
+      </c>
+      <c r="O81" s="3">
+        <v>100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="Q81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V81" s="3">
+        <v>6000</v>
+      </c>
+      <c r="W81" s="3">
+        <v>300</v>
+      </c>
+      <c r="X81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="Z81" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>600</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
-        <v>200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>1400</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="T81" s="3">
-        <v>6000</v>
-      </c>
-      <c r="U81" s="3">
-        <v>300</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="X81" s="3">
-        <v>800</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>600</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>3300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,28 +6607,30 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
         <v>-100</v>
-      </c>
-      <c r="E83" s="3">
-        <v>100</v>
-      </c>
-      <c r="F83" s="3">
-        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -6294,8 +6692,14 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +7137,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2000</v>
-      </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>100</v>
       </c>
       <c r="K89" s="3">
         <v>100</v>
       </c>
       <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
+        <v>100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>400</v>
-      </c>
-      <c r="N89" s="3">
-        <v>100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>100</v>
       </c>
       <c r="Q89" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>100</v>
       </c>
       <c r="S89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T89" s="3">
         <v>100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
+        <v>100</v>
+      </c>
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>1200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>1000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>1800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>2800</v>
       </c>
-      <c r="AC89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,22 +7263,24 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-300</v>
-      </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -6849,26 +7291,26 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
@@ -6876,17 +7318,17 @@
       <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3" t="s">
+      <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W91" s="3" t="s">
+      <c r="U91" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>8</v>
@@ -6894,11 +7336,11 @@
       <c r="Y91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA91" s="3">
-        <v>0</v>
+      <c r="Z91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB91" s="3">
         <v>0</v>
@@ -6906,8 +7348,14 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,71 +7526,77 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
@@ -7150,13 +7610,19 @@
         <v>0</v>
       </c>
       <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
         <v>700</v>
       </c>
-      <c r="AC94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7258,19 +7726,25 @@
         <v>0</v>
       </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-200</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,91 +8004,103 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-1300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-1000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>1300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,87 +8182,99 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>200</v>
-      </c>
-      <c r="Y102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Z102" s="3">
-        <v>0</v>
       </c>
       <c r="AA102" s="3">
         <v>-100</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD102" s="3">
         <v>600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>100</v>
       </c>
     </row>
